--- a/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U170"/>
+  <dimension ref="A1:U186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.40966373738438</v>
+        <v>1.38091892752578</v>
       </c>
       <c r="H2" t="n">
-        <v>6.64554070752823</v>
+        <v>5.40951388360847</v>
       </c>
       <c r="I2" t="n">
         <v>3.705</v>
@@ -651,7 +651,7 @@
         <v>0.011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0125083323640989</v>
+        <v>0.0125199406081039</v>
       </c>
       <c r="H3" t="n">
         <v>0.043</v>
@@ -732,7 +732,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0125083323640989</v>
+        <v>0.0125199406081039</v>
       </c>
       <c r="H4" t="n">
         <v>0.043</v>
@@ -1153,7 +1153,7 @@
         <v>0.00769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0157096414322422</v>
+        <v>0.0157126706351734</v>
       </c>
       <c r="H9" t="n">
         <v>0.0939557763622683</v>
@@ -1234,7 +1234,7 @@
         <v>0.00769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0157096414322422</v>
+        <v>0.0157126706351734</v>
       </c>
       <c r="H10" t="n">
         <v>0.0939557763622683</v>
@@ -1315,7 +1315,7 @@
         <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.101812584670509</v>
+        <v>0.101811275765569</v>
       </c>
       <c r="H11" t="n">
         <v>1.53</v>
@@ -1396,7 +1396,7 @@
         <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.101812584670509</v>
+        <v>0.101811275765569</v>
       </c>
       <c r="H12" t="n">
         <v>1.53</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0605</v>
+        <v>0.06055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.124407407407407</v>
+        <v>0.124398148148148</v>
       </c>
       <c r="H13" t="n">
         <v>1.603</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.027</v>
+        <v>0.0275</v>
       </c>
       <c r="M13" t="n">
         <v>0.1724</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0605</v>
+        <v>0.06055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.124407407407407</v>
+        <v>0.124398148148148</v>
       </c>
       <c r="H14" t="n">
         <v>1.603</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.027</v>
+        <v>0.0275</v>
       </c>
       <c r="M14" t="n">
         <v>0.1724</v>
@@ -1939,10 +1939,10 @@
         <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.42152420250066</v>
+        <v>1.39277939264206</v>
       </c>
       <c r="H19" t="n">
-        <v>6.64554070752823</v>
+        <v>5.40951388360847</v>
       </c>
       <c r="I19" t="n">
         <v>2.57</v>
@@ -2020,7 +2020,7 @@
         <v>0.012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0134625828857663</v>
+        <v>0.0134706804431032</v>
       </c>
       <c r="H20" t="n">
         <v>0.043</v>
@@ -2101,7 +2101,7 @@
         <v>0.012</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0134625828857663</v>
+        <v>0.0134706804431032</v>
       </c>
       <c r="H21" t="n">
         <v>0.043</v>
@@ -2522,7 +2522,7 @@
         <v>0.00689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0151866405162425</v>
+        <v>0.0151891597534058</v>
       </c>
       <c r="H26" t="n">
         <v>0.0939557763622683</v>
@@ -2603,7 +2603,7 @@
         <v>0.00689</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0151866405162425</v>
+        <v>0.0151891597534058</v>
       </c>
       <c r="H27" t="n">
         <v>0.0939557763622683</v>
@@ -2684,7 +2684,7 @@
         <v>0.02875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0880176615833778</v>
+        <v>0.0880165950682418</v>
       </c>
       <c r="H28" t="n">
         <v>1.53</v>
@@ -2765,7 +2765,7 @@
         <v>0.02875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0880176615833778</v>
+        <v>0.0880165950682418</v>
       </c>
       <c r="H29" t="n">
         <v>1.53</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0415</v>
+        <v>0.0413</v>
       </c>
       <c r="G30" t="n">
-        <v>0.107537037037037</v>
+        <v>0.107362962962963</v>
       </c>
       <c r="H30" t="n">
         <v>1.603</v>
@@ -2853,10 +2853,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.017</v>
+        <v>0.0172</v>
       </c>
       <c r="M30" t="n">
-        <v>0.15056</v>
+        <v>0.15069</v>
       </c>
       <c r="N30" t="n">
         <v>0.22358</v>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0415</v>
+        <v>0.0413</v>
       </c>
       <c r="G31" t="n">
-        <v>0.107537037037037</v>
+        <v>0.107362962962963</v>
       </c>
       <c r="H31" t="n">
         <v>1.603</v>
@@ -2930,10 +2930,10 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.017</v>
+        <v>0.0172</v>
       </c>
       <c r="M31" t="n">
-        <v>0.15056</v>
+        <v>0.15069</v>
       </c>
       <c r="N31" t="n">
         <v>0.22358</v>
@@ -3308,10 +3308,10 @@
         <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.50086684652508</v>
+        <v>1.47071985081972</v>
       </c>
       <c r="H36" t="n">
-        <v>6.64554070752823</v>
+        <v>5.40951388360847</v>
       </c>
       <c r="I36" t="n">
         <v>2.59</v>
@@ -3389,7 +3389,7 @@
         <v>0.012</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0146725871695383</v>
+        <v>0.0146774306321218</v>
       </c>
       <c r="H37" t="n">
         <v>0.045</v>
@@ -3470,7 +3470,7 @@
         <v>0.012</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0146725871695383</v>
+        <v>0.0146774306321218</v>
       </c>
       <c r="H38" t="n">
         <v>0.045</v>
@@ -3891,7 +3891,7 @@
         <v>0.00588</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0162016010990427</v>
+        <v>0.0162028587777271</v>
       </c>
       <c r="H43" t="n">
         <v>0.0939557763622683</v>
@@ -3972,7 +3972,7 @@
         <v>0.00588</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0162016010990427</v>
+        <v>0.0162028587777271</v>
       </c>
       <c r="H44" t="n">
         <v>0.0939557763622683</v>
@@ -4053,7 +4053,7 @@
         <v>0.0257</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08483122284797</v>
+        <v>0.08483118917084451</v>
       </c>
       <c r="H45" t="n">
         <v>1.53</v>
@@ -4134,7 +4134,7 @@
         <v>0.0257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08483122284797</v>
+        <v>0.08483118917084451</v>
       </c>
       <c r="H46" t="n">
         <v>1.53</v>
@@ -4208,27 +4208,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.038</v>
+        <v>0.0382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.104376649683159</v>
+        <v>0.104157073422013</v>
       </c>
       <c r="H47" t="n">
         <v>1.603</v>
       </c>
       <c r="I47" t="n">
-        <v>0.385</v>
+        <v>0.38505</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.017</v>
+        <v>0.0172</v>
       </c>
       <c r="M47" t="n">
         <v>0.1446</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2521</v>
+        <v>0.25212</v>
       </c>
       <c r="O47" t="n">
         <v>1841577.109</v>
@@ -4285,27 +4285,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.038</v>
+        <v>0.0382</v>
       </c>
       <c r="G48" t="n">
-        <v>0.104376649683159</v>
+        <v>0.104157073422013</v>
       </c>
       <c r="H48" t="n">
         <v>1.603</v>
       </c>
       <c r="I48" t="n">
-        <v>0.385</v>
+        <v>0.38505</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.017</v>
+        <v>0.0172</v>
       </c>
       <c r="M48" t="n">
         <v>0.1446</v>
       </c>
       <c r="N48" t="n">
-        <v>0.2521</v>
+        <v>0.25212</v>
       </c>
       <c r="O48" t="n">
         <v>1841577.109</v>
@@ -4758,7 +4758,7 @@
         <v>0.015</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0189517100072466</v>
+        <v>0.0189536348148831</v>
       </c>
       <c r="H54" t="n">
         <v>0.079</v>
@@ -4839,7 +4839,7 @@
         <v>0.015</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0189517100072466</v>
+        <v>0.0189536348148831</v>
       </c>
       <c r="H55" t="n">
         <v>0.079</v>
@@ -5260,7 +5260,7 @@
         <v>0.00312</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0139368140941259</v>
+        <v>0.0139387757012899</v>
       </c>
       <c r="H60" t="n">
         <v>0.0935074670612273</v>
@@ -5341,7 +5341,7 @@
         <v>0.00312</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0139368140941259</v>
+        <v>0.0139387757012899</v>
       </c>
       <c r="H61" t="n">
         <v>0.0935074670612273</v>
@@ -5422,7 +5422,7 @@
         <v>0.0259</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0531627895822302</v>
+        <v>0.0531626521192737</v>
       </c>
       <c r="H62" t="n">
         <v>0.3172</v>
@@ -5503,7 +5503,7 @@
         <v>0.0259</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0531627895822302</v>
+        <v>0.0531626521192737</v>
       </c>
       <c r="H63" t="n">
         <v>0.3172</v>
@@ -5580,10 +5580,10 @@
         <v>0.037</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06930392241043121</v>
+        <v>0.0690843461492862</v>
       </c>
       <c r="H64" t="n">
-        <v>0.425</v>
+        <v>0.4251</v>
       </c>
       <c r="I64" t="n">
         <v>0.2405</v>
@@ -5591,7 +5591,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.016</v>
+        <v>0.0165</v>
       </c>
       <c r="M64" t="n">
         <v>0.1236</v>
@@ -5657,10 +5657,10 @@
         <v>0.037</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06930392241043121</v>
+        <v>0.0690843461492862</v>
       </c>
       <c r="H65" t="n">
-        <v>0.425</v>
+        <v>0.4251</v>
       </c>
       <c r="I65" t="n">
         <v>0.2405</v>
@@ -5668,7 +5668,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.016</v>
+        <v>0.0165</v>
       </c>
       <c r="M65" t="n">
         <v>0.1236</v>
@@ -6127,7 +6127,7 @@
         <v>0.017</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0213507594896304</v>
+        <v>0.0213525847382512</v>
       </c>
       <c r="H71" t="n">
         <v>0.079</v>
@@ -6208,7 +6208,7 @@
         <v>0.017</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0213507594896304</v>
+        <v>0.0213525847382512</v>
       </c>
       <c r="H72" t="n">
         <v>0.079</v>
@@ -6629,7 +6629,7 @@
         <v>0.00342</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009849004853981699</v>
+        <v>0.0098465077333077</v>
       </c>
       <c r="H77" t="n">
         <v>0.0935074670612273</v>
@@ -6710,7 +6710,7 @@
         <v>0.00342</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009849004853981699</v>
+        <v>0.0098465077333077</v>
       </c>
       <c r="H78" t="n">
         <v>0.0935074670612273</v>
@@ -6791,7 +6791,7 @@
         <v>0.0295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0678831248648388</v>
+        <v>0.06788272115516809</v>
       </c>
       <c r="H79" t="n">
         <v>0.49</v>
@@ -6872,7 +6872,7 @@
         <v>0.0295</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0678831248648388</v>
+        <v>0.06788272115516809</v>
       </c>
       <c r="H80" t="n">
         <v>0.49</v>
@@ -6946,16 +6946,16 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0375</v>
+        <v>0.0376</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0814627131079467</v>
+        <v>0.0812403058149337</v>
       </c>
       <c r="H81" t="n">
         <v>0.51</v>
       </c>
       <c r="I81" t="n">
-        <v>0.295</v>
+        <v>0.29508</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -7023,16 +7023,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.0375</v>
+        <v>0.0376</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0814627131079467</v>
+        <v>0.0812403058149337</v>
       </c>
       <c r="H82" t="n">
         <v>0.51</v>
       </c>
       <c r="I82" t="n">
-        <v>0.295</v>
+        <v>0.29508</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7496,7 +7496,7 @@
         <v>0.016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0211167314133333</v>
+        <v>0.0211175828591499</v>
       </c>
       <c r="H88" t="n">
         <v>0.079</v>
@@ -7577,7 +7577,7 @@
         <v>0.016</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0211167314133333</v>
+        <v>0.0211175828591499</v>
       </c>
       <c r="H89" t="n">
         <v>0.079</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00507</v>
+        <v>0.00502</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0125601816469643</v>
+        <v>0.0125475917509759</v>
       </c>
       <c r="H94" t="n">
         <v>0.0935074670612273</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00507</v>
+        <v>0.00502</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0125601816469643</v>
+        <v>0.0125475917509759</v>
       </c>
       <c r="H95" t="n">
         <v>0.0935074670612273</v>
@@ -8160,7 +8160,7 @@
         <v>0.04155</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0787403269048769</v>
+        <v>0.07873949919462971</v>
       </c>
       <c r="H96" t="n">
         <v>0.49</v>
@@ -8241,7 +8241,7 @@
         <v>0.04155</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0787403269048769</v>
+        <v>0.07873949919462971</v>
       </c>
       <c r="H97" t="n">
         <v>0.49</v>
@@ -8318,24 +8318,24 @@
         <v>0.055</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0944703081281999</v>
+        <v>0.0942376767204894</v>
       </c>
       <c r="H98" t="n">
         <v>0.51</v>
       </c>
       <c r="I98" t="n">
-        <v>0.377</v>
+        <v>0.37706</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.014</v>
+        <v>0.01425</v>
       </c>
       <c r="M98" t="n">
         <v>0.1664</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2709</v>
+        <v>0.27107</v>
       </c>
       <c r="O98" t="n">
         <v>1841577.109</v>
@@ -8395,24 +8395,24 @@
         <v>0.055</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0944703081281999</v>
+        <v>0.0942376767204894</v>
       </c>
       <c r="H99" t="n">
         <v>0.51</v>
       </c>
       <c r="I99" t="n">
-        <v>0.377</v>
+        <v>0.37706</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.014</v>
+        <v>0.01425</v>
       </c>
       <c r="M99" t="n">
         <v>0.1664</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2709</v>
+        <v>0.27107</v>
       </c>
       <c r="O99" t="n">
         <v>1841577.109</v>
@@ -8865,7 +8865,7 @@
         <v>0.016</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0201684555512644</v>
+        <v>0.0201693069970809</v>
       </c>
       <c r="H105" t="n">
         <v>0.079</v>
@@ -8946,7 +8946,7 @@
         <v>0.016</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0201684555512644</v>
+        <v>0.0201693069970809</v>
       </c>
       <c r="H106" t="n">
         <v>0.079</v>
@@ -9027,7 +9027,7 @@
         <v>380</v>
       </c>
       <c r="G107" t="n">
-        <v>1211.23629957554</v>
+        <v>1194.47020691779</v>
       </c>
       <c r="H107" t="n">
         <v>12000</v>
@@ -9112,7 +9112,7 @@
         <v>380</v>
       </c>
       <c r="G108" t="n">
-        <v>1211.23629957554</v>
+        <v>1194.47020691779</v>
       </c>
       <c r="H108" t="n">
         <v>12000</v>
@@ -9197,7 +9197,7 @@
         <v>380</v>
       </c>
       <c r="G109" t="n">
-        <v>1211.23629957554</v>
+        <v>1194.47020691779</v>
       </c>
       <c r="H109" t="n">
         <v>12000</v>
@@ -9282,7 +9282,7 @@
         <v>380</v>
       </c>
       <c r="G110" t="n">
-        <v>1211.23629957554</v>
+        <v>1194.47020691779</v>
       </c>
       <c r="H110" t="n">
         <v>12000</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.007939999999999999</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>0.023000958300786</v>
+        <v>0.0229849836514562</v>
       </c>
       <c r="H111" t="n">
         <v>0.242573401277614</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.007939999999999999</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="M111" t="n">
         <v>0.04377</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.007939999999999999</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>0.023000958300786</v>
+        <v>0.0229849836514562</v>
       </c>
       <c r="H112" t="n">
         <v>0.242573401277614</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.007939999999999999</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="M112" t="n">
         <v>0.04377</v>
@@ -9529,7 +9529,7 @@
         <v>0.0505</v>
       </c>
       <c r="G113" t="n">
-        <v>0.09423687862901479</v>
+        <v>0.09423605091876761</v>
       </c>
       <c r="H113" t="n">
         <v>0.49</v>
@@ -9610,7 +9610,7 @@
         <v>0.0505</v>
       </c>
       <c r="G114" t="n">
-        <v>0.09423687862901479</v>
+        <v>0.09423605091876761</v>
       </c>
       <c r="H114" t="n">
         <v>0.49</v>
@@ -9687,13 +9687,13 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>0.117263411576476</v>
+        <v>0.117201469823938</v>
       </c>
       <c r="H115" t="n">
         <v>0.51</v>
       </c>
       <c r="I115" t="n">
-        <v>0.423</v>
+        <v>0.42306</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -9764,13 +9764,13 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>0.117263411576476</v>
+        <v>0.117201469823938</v>
       </c>
       <c r="H116" t="n">
         <v>0.51</v>
       </c>
       <c r="I116" t="n">
-        <v>0.423</v>
+        <v>0.42306</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -10234,7 +10234,7 @@
         <v>0.0135</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0179960417581609</v>
+        <v>0.0179968932039775</v>
       </c>
       <c r="H122" t="n">
         <v>0.079</v>
@@ -10315,7 +10315,7 @@
         <v>0.0135</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0179960417581609</v>
+        <v>0.0179968932039775</v>
       </c>
       <c r="H123" t="n">
         <v>0.079</v>
@@ -10396,7 +10396,7 @@
         <v>300</v>
       </c>
       <c r="G124" t="n">
-        <v>1190.46043750658</v>
+        <v>1173.69434484883</v>
       </c>
       <c r="H124" t="n">
         <v>12000</v>
@@ -10481,7 +10481,7 @@
         <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>1190.46043750658</v>
+        <v>1173.69434484883</v>
       </c>
       <c r="H125" t="n">
         <v>12000</v>
@@ -10566,7 +10566,7 @@
         <v>300</v>
       </c>
       <c r="G126" t="n">
-        <v>1190.46043750658</v>
+        <v>1173.69434484883</v>
       </c>
       <c r="H126" t="n">
         <v>12000</v>
@@ -10651,7 +10651,7 @@
         <v>300</v>
       </c>
       <c r="G127" t="n">
-        <v>1190.46043750658</v>
+        <v>1173.69434484883</v>
       </c>
       <c r="H127" t="n">
         <v>12000</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0262242575703626</v>
+        <v>0.0262061145197537</v>
       </c>
       <c r="H128" t="n">
         <v>0.242573401277614</v>
@@ -10747,7 +10747,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.01022</v>
+        <v>0.01016</v>
       </c>
       <c r="M128" t="n">
         <v>0.0517</v>
@@ -10814,10 +10814,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.009220000000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0262242575703626</v>
+        <v>0.0262061145197537</v>
       </c>
       <c r="H129" t="n">
         <v>0.242573401277614</v>
@@ -10828,7 +10828,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.01022</v>
+        <v>0.01016</v>
       </c>
       <c r="M129" t="n">
         <v>0.0517</v>
@@ -10898,7 +10898,7 @@
         <v>0.0565</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0993945781631069</v>
+        <v>0.09939388080566321</v>
       </c>
       <c r="H130" t="n">
         <v>0.49</v>
@@ -10979,7 +10979,7 @@
         <v>0.0565</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0993945781631069</v>
+        <v>0.09939388080566321</v>
       </c>
       <c r="H131" t="n">
         <v>0.49</v>
@@ -11056,7 +11056,7 @@
         <v>0.0975</v>
       </c>
       <c r="G132" t="n">
-        <v>0.127026933428653</v>
+        <v>0.126997348475477</v>
       </c>
       <c r="H132" t="n">
         <v>0.51</v>
@@ -11133,7 +11133,7 @@
         <v>0.0975</v>
       </c>
       <c r="G133" t="n">
-        <v>0.127026933428653</v>
+        <v>0.126997348475477</v>
       </c>
       <c r="H133" t="n">
         <v>0.51</v>
@@ -11765,10 +11765,10 @@
         <v>230</v>
       </c>
       <c r="G141" t="n">
-        <v>889.215345345448</v>
+        <v>872.733423749695</v>
       </c>
       <c r="H141" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I141" t="n">
         <v>3430</v>
@@ -11850,10 +11850,10 @@
         <v>230</v>
       </c>
       <c r="G142" t="n">
-        <v>889.215345345448</v>
+        <v>872.733423749695</v>
       </c>
       <c r="H142" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I142" t="n">
         <v>3430</v>
@@ -11935,10 +11935,10 @@
         <v>230</v>
       </c>
       <c r="G143" t="n">
-        <v>889.215345345448</v>
+        <v>872.733423749695</v>
       </c>
       <c r="H143" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I143" t="n">
         <v>3430</v>
@@ -12020,10 +12020,10 @@
         <v>230</v>
       </c>
       <c r="G144" t="n">
-        <v>889.215345345448</v>
+        <v>872.733423749695</v>
       </c>
       <c r="H144" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I144" t="n">
         <v>3430</v>
@@ -12105,7 +12105,7 @@
         <v>0.0162</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0333641290930041</v>
+        <v>0.033346753388927</v>
       </c>
       <c r="H145" t="n">
         <v>0.242573401277614</v>
@@ -12186,7 +12186,7 @@
         <v>0.0162</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0333641290930041</v>
+        <v>0.033346753388927</v>
       </c>
       <c r="H146" t="n">
         <v>0.242573401277614</v>
@@ -12267,7 +12267,7 @@
         <v>0.055</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0974048395501729</v>
+        <v>0.09740415401234689</v>
       </c>
       <c r="H147" t="n">
         <v>0.49</v>
@@ -12348,7 +12348,7 @@
         <v>0.055</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0974048395501729</v>
+        <v>0.09740415401234689</v>
       </c>
       <c r="H148" t="n">
         <v>0.49</v>
@@ -12425,7 +12425,7 @@
         <v>0.092</v>
       </c>
       <c r="G149" t="n">
-        <v>0.129433256590879</v>
+        <v>0.129395698501316</v>
       </c>
       <c r="H149" t="n">
         <v>0.51</v>
@@ -12502,7 +12502,7 @@
         <v>0.092</v>
       </c>
       <c r="G150" t="n">
-        <v>0.129433256590879</v>
+        <v>0.129395698501316</v>
       </c>
       <c r="H150" t="n">
         <v>0.51</v>
@@ -13053,10 +13053,10 @@
         <v>225</v>
       </c>
       <c r="G157" t="n">
-        <v>638.753540954852</v>
+        <v>621.987448297103</v>
       </c>
       <c r="H157" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I157" t="n">
         <v>2360</v>
@@ -13138,10 +13138,10 @@
         <v>225</v>
       </c>
       <c r="G158" t="n">
-        <v>638.753540954852</v>
+        <v>621.987448297103</v>
       </c>
       <c r="H158" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I158" t="n">
         <v>2360</v>
@@ -13223,10 +13223,10 @@
         <v>225</v>
       </c>
       <c r="G159" t="n">
-        <v>638.753540954852</v>
+        <v>621.987448297103</v>
       </c>
       <c r="H159" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I159" t="n">
         <v>2360</v>
@@ -13308,10 +13308,10 @@
         <v>225</v>
       </c>
       <c r="G160" t="n">
-        <v>638.753540954852</v>
+        <v>621.987448297103</v>
       </c>
       <c r="H160" t="n">
-        <v>11842.7053753814</v>
+        <v>10870.272001232</v>
       </c>
       <c r="I160" t="n">
         <v>2360</v>
@@ -13393,7 +13393,7 @@
         <v>0.0333</v>
       </c>
       <c r="G161" t="n">
-        <v>0.038240233687763</v>
+        <v>0.0382275842441588</v>
       </c>
       <c r="H161" t="n">
         <v>0.242573401277614</v>
@@ -13474,7 +13474,7 @@
         <v>0.0333</v>
       </c>
       <c r="G162" t="n">
-        <v>0.038240233687763</v>
+        <v>0.0382275842441588</v>
       </c>
       <c r="H162" t="n">
         <v>0.242573401277614</v>
@@ -13555,7 +13555,7 @@
         <v>0.0455</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0890968572124519</v>
+        <v>0.08909643321187539</v>
       </c>
       <c r="H163" t="n">
         <v>0.368</v>
@@ -13636,7 +13636,7 @@
         <v>0.0455</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0890968572124519</v>
+        <v>0.08909643321187539</v>
       </c>
       <c r="H164" t="n">
         <v>0.368</v>
@@ -13713,7 +13713,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>0.125266215709908</v>
+        <v>0.125242198491763</v>
       </c>
       <c r="H165" t="n">
         <v>0.43</v>
@@ -13790,7 +13790,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>0.125266215709908</v>
+        <v>0.125242198491763</v>
       </c>
       <c r="H166" t="n">
         <v>0.43</v>
@@ -14149,6 +14149,1294 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0120172413793103</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.02072</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0120172413793103</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.02072</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>225</v>
+      </c>
+      <c r="G173" t="n">
+        <v>608.125379331586</v>
+      </c>
+      <c r="H173" t="n">
+        <v>10870.272001232</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2360</v>
+      </c>
+      <c r="J173" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K173" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L173" t="n">
+        <v>290</v>
+      </c>
+      <c r="M173" t="n">
+        <v>482.56</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>225</v>
+      </c>
+      <c r="G174" t="n">
+        <v>608.125379331586</v>
+      </c>
+      <c r="H174" t="n">
+        <v>10870.272001232</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2360</v>
+      </c>
+      <c r="J174" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K174" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L174" t="n">
+        <v>290</v>
+      </c>
+      <c r="M174" t="n">
+        <v>482.56</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>225</v>
+      </c>
+      <c r="G175" t="n">
+        <v>608.125379331586</v>
+      </c>
+      <c r="H175" t="n">
+        <v>10870.272001232</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2360</v>
+      </c>
+      <c r="J175" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K175" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L175" t="n">
+        <v>290</v>
+      </c>
+      <c r="M175" t="n">
+        <v>482.56</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>225</v>
+      </c>
+      <c r="G176" t="n">
+        <v>608.125379331586</v>
+      </c>
+      <c r="H176" t="n">
+        <v>10870.272001232</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2360</v>
+      </c>
+      <c r="J176" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K176" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L176" t="n">
+        <v>290</v>
+      </c>
+      <c r="M176" t="n">
+        <v>482.56</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0378644780160172</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.242573401277614</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.09725</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.02895</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.05691</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.07388</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0378644780160172</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.242573401277614</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.09725</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.02895</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.05691</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.07388</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.09927586206896551</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.3736</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.24012</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.32458</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.09927586206896551</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.3736</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.24012</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.32458</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.135672413793103</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.27712</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.35644</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.135672413793103</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.27712</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.35644</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.423620689655172</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.5928</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.423620689655172</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.5928</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0418103448275862</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.07016</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0418103448275862</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.07016</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -570,10 +570,10 @@
         <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.38091892752578</v>
+        <v>1.37576192561073</v>
       </c>
       <c r="H2" t="n">
-        <v>5.40951388360847</v>
+        <v>5.18776280126149</v>
       </c>
       <c r="I2" t="n">
         <v>3.705</v>
@@ -1939,10 +1939,10 @@
         <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39277939264206</v>
+        <v>1.38762239072701</v>
       </c>
       <c r="H19" t="n">
-        <v>5.40951388360847</v>
+        <v>5.18776280126149</v>
       </c>
       <c r="I19" t="n">
         <v>2.57</v>
@@ -3308,10 +3308,10 @@
         <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.47071985081972</v>
+        <v>1.46531128783565</v>
       </c>
       <c r="H36" t="n">
-        <v>5.40951388360847</v>
+        <v>5.18776280126149</v>
       </c>
       <c r="I36" t="n">
         <v>2.59</v>
@@ -9027,10 +9027,10 @@
         <v>380</v>
       </c>
       <c r="G107" t="n">
-        <v>1194.47020691779</v>
+        <v>1311.67841261566</v>
       </c>
       <c r="H107" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I107" t="n">
         <v>7300</v>
@@ -9112,10 +9112,10 @@
         <v>380</v>
       </c>
       <c r="G108" t="n">
-        <v>1194.47020691779</v>
+        <v>1311.67841261566</v>
       </c>
       <c r="H108" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I108" t="n">
         <v>7300</v>
@@ -9197,10 +9197,10 @@
         <v>380</v>
       </c>
       <c r="G109" t="n">
-        <v>1194.47020691779</v>
+        <v>1311.67841261566</v>
       </c>
       <c r="H109" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I109" t="n">
         <v>7300</v>
@@ -9282,10 +9282,10 @@
         <v>380</v>
       </c>
       <c r="G110" t="n">
-        <v>1194.47020691779</v>
+        <v>1311.67841261566</v>
       </c>
       <c r="H110" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I110" t="n">
         <v>7300</v>
@@ -10396,10 +10396,10 @@
         <v>300</v>
       </c>
       <c r="G124" t="n">
-        <v>1173.69434484883</v>
+        <v>1290.9025505467</v>
       </c>
       <c r="H124" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I124" t="n">
         <v>7300</v>
@@ -10481,10 +10481,10 @@
         <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>1173.69434484883</v>
+        <v>1290.9025505467</v>
       </c>
       <c r="H125" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I125" t="n">
         <v>7300</v>
@@ -10566,10 +10566,10 @@
         <v>300</v>
       </c>
       <c r="G126" t="n">
-        <v>1173.69434484883</v>
+        <v>1290.9025505467</v>
       </c>
       <c r="H126" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I126" t="n">
         <v>7300</v>
@@ -10651,10 +10651,10 @@
         <v>300</v>
       </c>
       <c r="G127" t="n">
-        <v>1173.69434484883</v>
+        <v>1290.9025505467</v>
       </c>
       <c r="H127" t="n">
-        <v>12000</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I127" t="n">
         <v>7300</v>
@@ -11765,10 +11765,10 @@
         <v>230</v>
       </c>
       <c r="G141" t="n">
-        <v>872.733423749695</v>
+        <v>987.955049689975</v>
       </c>
       <c r="H141" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I141" t="n">
         <v>3430</v>
@@ -11850,10 +11850,10 @@
         <v>230</v>
       </c>
       <c r="G142" t="n">
-        <v>872.733423749695</v>
+        <v>987.955049689975</v>
       </c>
       <c r="H142" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I142" t="n">
         <v>3430</v>
@@ -11935,10 +11935,10 @@
         <v>230</v>
       </c>
       <c r="G143" t="n">
-        <v>872.733423749695</v>
+        <v>987.955049689975</v>
       </c>
       <c r="H143" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I143" t="n">
         <v>3430</v>
@@ -12020,10 +12020,10 @@
         <v>230</v>
       </c>
       <c r="G144" t="n">
-        <v>872.733423749695</v>
+        <v>987.955049689975</v>
       </c>
       <c r="H144" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I144" t="n">
         <v>3430</v>
@@ -13053,10 +13053,10 @@
         <v>225</v>
       </c>
       <c r="G157" t="n">
-        <v>621.987448297103</v>
+        <v>739.195653994975</v>
       </c>
       <c r="H157" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I157" t="n">
         <v>2360</v>
@@ -13138,10 +13138,10 @@
         <v>225</v>
       </c>
       <c r="G158" t="n">
-        <v>621.987448297103</v>
+        <v>739.195653994975</v>
       </c>
       <c r="H158" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I158" t="n">
         <v>2360</v>
@@ -13223,10 +13223,10 @@
         <v>225</v>
       </c>
       <c r="G159" t="n">
-        <v>621.987448297103</v>
+        <v>739.195653994975</v>
       </c>
       <c r="H159" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I159" t="n">
         <v>2360</v>
@@ -13308,10 +13308,10 @@
         <v>225</v>
       </c>
       <c r="G160" t="n">
-        <v>621.987448297103</v>
+        <v>739.195653994975</v>
       </c>
       <c r="H160" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I160" t="n">
         <v>2360</v>
@@ -14341,10 +14341,10 @@
         <v>225</v>
       </c>
       <c r="G173" t="n">
-        <v>608.125379331586</v>
+        <v>725.333585029457</v>
       </c>
       <c r="H173" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I173" t="n">
         <v>2360</v>
@@ -14426,10 +14426,10 @@
         <v>225</v>
       </c>
       <c r="G174" t="n">
-        <v>608.125379331586</v>
+        <v>725.333585029457</v>
       </c>
       <c r="H174" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I174" t="n">
         <v>2360</v>
@@ -14511,10 +14511,10 @@
         <v>225</v>
       </c>
       <c r="G175" t="n">
-        <v>608.125379331586</v>
+        <v>725.333585029457</v>
       </c>
       <c r="H175" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I175" t="n">
         <v>2360</v>
@@ -14596,10 +14596,10 @@
         <v>225</v>
       </c>
       <c r="G176" t="n">
-        <v>608.125379331586</v>
+        <v>725.333585029457</v>
       </c>
       <c r="H176" t="n">
-        <v>10870.272001232</v>
+        <v>17668.3479317085</v>
       </c>
       <c r="I176" t="n">
         <v>2360</v>

--- a/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/state_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U186"/>
+  <dimension ref="A1:U202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,22 +663,22 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1.2</v>
       </c>
       <c r="G2">
-        <v>1.45371153410131</v>
+        <v>1.39137061262852</v>
       </c>
       <c r="H2">
-        <v>8.539595966356471</v>
+        <v>5.85893634302636</v>
       </c>
       <c r="I2">
         <v>3.705</v>
       </c>
       <c r="L2">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="M2">
         <v>2.1</v>
@@ -690,19 +693,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,13 +722,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.011</v>
       </c>
       <c r="G3">
-        <v>0.0125199406081039</v>
+        <v>0.012527586702404</v>
       </c>
       <c r="H3">
         <v>0.043</v>
@@ -734,7 +737,7 @@
         <v>0.0294</v>
       </c>
       <c r="L3">
-        <v>0.011</v>
+        <v>0.0115</v>
       </c>
       <c r="M3">
         <v>0.01964</v>
@@ -749,19 +752,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,13 +781,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0.011</v>
       </c>
       <c r="G4">
-        <v>0.0125199406081039</v>
+        <v>0.012527586702404</v>
       </c>
       <c r="H4">
         <v>0.043</v>
@@ -793,7 +796,7 @@
         <v>0.0294</v>
       </c>
       <c r="L4">
-        <v>0.011</v>
+        <v>0.0115</v>
       </c>
       <c r="M4">
         <v>0.01964</v>
@@ -808,19 +811,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -837,7 +840,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>415.5</v>
@@ -849,7 +852,7 @@
         <v>14390</v>
       </c>
       <c r="I5">
-        <v>9743</v>
+        <v>9743.32</v>
       </c>
       <c r="J5">
         <v>38.8888888888889</v>
@@ -858,7 +861,7 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L5">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="M5">
         <v>2909.6</v>
@@ -873,19 +876,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>415.5</v>
@@ -914,7 +917,7 @@
         <v>14390</v>
       </c>
       <c r="I6">
-        <v>9743</v>
+        <v>9743.32</v>
       </c>
       <c r="J6">
         <v>38.8888888888889</v>
@@ -923,7 +926,7 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L6">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="M6">
         <v>2909.6</v>
@@ -938,19 +941,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -967,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>415.5</v>
@@ -979,7 +982,7 @@
         <v>14390</v>
       </c>
       <c r="I7">
-        <v>9743</v>
+        <v>9743.32</v>
       </c>
       <c r="J7">
         <v>38.8888888888889</v>
@@ -988,7 +991,7 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L7">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="M7">
         <v>2909.6</v>
@@ -1003,19 +1006,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1032,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>415.5</v>
@@ -1044,7 +1047,7 @@
         <v>14390</v>
       </c>
       <c r="I8">
-        <v>9743</v>
+        <v>9743.32</v>
       </c>
       <c r="J8">
         <v>38.8888888888889</v>
@@ -1053,7 +1056,7 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L8">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="M8">
         <v>2909.6</v>
@@ -1068,19 +1071,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.00769</v>
       </c>
       <c r="G9">
-        <v>0.0157126706351734</v>
+        <v>0.0157155922465585</v>
       </c>
       <c r="H9">
         <v>0.0939557763622683</v>
@@ -1112,7 +1115,7 @@
         <v>0.05701</v>
       </c>
       <c r="L9">
-        <v>0.0078</v>
+        <v>0.007</v>
       </c>
       <c r="M9">
         <v>0.03127</v>
@@ -1127,19 +1130,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.00769</v>
       </c>
       <c r="G10">
-        <v>0.0157126706351734</v>
+        <v>0.0157155922465585</v>
       </c>
       <c r="H10">
         <v>0.0939557763622683</v>
@@ -1171,7 +1174,7 @@
         <v>0.05701</v>
       </c>
       <c r="L10">
-        <v>0.0078</v>
+        <v>0.007</v>
       </c>
       <c r="M10">
         <v>0.03127</v>
@@ -1186,19 +1189,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1215,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.035</v>
       </c>
       <c r="G11">
-        <v>0.101811275765569</v>
+        <v>0.101817465165896</v>
       </c>
       <c r="H11">
         <v>1.53</v>
@@ -1230,7 +1233,7 @@
         <v>0.3087</v>
       </c>
       <c r="L11">
-        <v>0.013</v>
+        <v>0.0142</v>
       </c>
       <c r="M11">
         <v>0.13524</v>
@@ -1245,19 +1248,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1274,13 +1277,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.035</v>
       </c>
       <c r="G12">
-        <v>0.101811275765569</v>
+        <v>0.101817465165896</v>
       </c>
       <c r="H12">
         <v>1.53</v>
@@ -1289,7 +1292,7 @@
         <v>0.3087</v>
       </c>
       <c r="L12">
-        <v>0.013</v>
+        <v>0.0142</v>
       </c>
       <c r="M12">
         <v>0.13524</v>
@@ -1304,19 +1307,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1330,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.06055</v>
@@ -1345,7 +1348,7 @@
         <v>0.4002</v>
       </c>
       <c r="L13">
-        <v>0.0275</v>
+        <v>0.0269</v>
       </c>
       <c r="M13">
         <v>0.1724</v>
@@ -1360,19 +1363,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1386,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0.06055</v>
@@ -1401,7 +1404,7 @@
         <v>0.4002</v>
       </c>
       <c r="L14">
-        <v>0.0275</v>
+        <v>0.0269</v>
       </c>
       <c r="M14">
         <v>0.1724</v>
@@ -1416,19 +1419,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1442,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0.3165</v>
@@ -1457,7 +1460,7 @@
         <v>1.64</v>
       </c>
       <c r="L15">
-        <v>0.28</v>
+        <v>0.2695</v>
       </c>
       <c r="M15">
         <v>0.61</v>
@@ -1472,19 +1475,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>0.3165</v>
@@ -1513,7 +1516,7 @@
         <v>1.64</v>
       </c>
       <c r="L16">
-        <v>0.28</v>
+        <v>0.2695</v>
       </c>
       <c r="M16">
         <v>0.61</v>
@@ -1528,19 +1531,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1554,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.034</v>
@@ -1569,7 +1572,7 @@
         <v>0.2412</v>
       </c>
       <c r="L17">
-        <v>0.035</v>
+        <v>0.0315</v>
       </c>
       <c r="M17">
         <v>0.065</v>
@@ -1584,19 +1587,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,7 +1613,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0.034</v>
@@ -1625,7 +1628,7 @@
         <v>0.2412</v>
       </c>
       <c r="L18">
-        <v>0.035</v>
+        <v>0.0315</v>
       </c>
       <c r="M18">
         <v>0.065</v>
@@ -1640,19 +1643,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1669,22 +1672,22 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>1.2</v>
       </c>
       <c r="G19">
-        <v>1.46557199921759</v>
+        <v>1.4032310777448</v>
       </c>
       <c r="H19">
-        <v>8.539595966356471</v>
+        <v>5.85893634302636</v>
       </c>
       <c r="I19">
         <v>2.57</v>
       </c>
       <c r="L19">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="M19">
         <v>2.1</v>
@@ -1699,19 +1702,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1728,13 +1731,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>0.012</v>
       </c>
       <c r="G20">
-        <v>0.0134706804431032</v>
+        <v>0.0134756182702538</v>
       </c>
       <c r="H20">
         <v>0.043</v>
@@ -1758,19 +1761,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1787,13 +1790,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0.012</v>
       </c>
       <c r="G21">
-        <v>0.0134706804431032</v>
+        <v>0.0134756182702538</v>
       </c>
       <c r="H21">
         <v>0.043</v>
@@ -1817,19 +1820,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1846,7 +1849,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>433.5</v>
@@ -1867,7 +1870,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L22">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M22">
         <v>2118.48</v>
@@ -1882,19 +1885,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1911,7 +1914,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>433.5</v>
@@ -1932,7 +1935,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L23">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M23">
         <v>2118.48</v>
@@ -1947,19 +1950,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1976,7 +1979,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>433.5</v>
@@ -1997,7 +2000,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L24">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M24">
         <v>2118.48</v>
@@ -2012,19 +2015,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2041,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>433.5</v>
@@ -2062,7 +2065,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L25">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M25">
         <v>2118.48</v>
@@ -2077,19 +2080,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2106,13 +2109,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.00689</v>
       </c>
       <c r="G26">
-        <v>0.0151891597534058</v>
+        <v>0.015191459085813</v>
       </c>
       <c r="H26">
         <v>0.0939557763622683</v>
@@ -2121,7 +2124,7 @@
         <v>0.05701</v>
       </c>
       <c r="L26">
-        <v>0.0062</v>
+        <v>0.0037</v>
       </c>
       <c r="M26">
         <v>0.03127</v>
@@ -2136,19 +2139,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2165,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.00689</v>
       </c>
       <c r="G27">
-        <v>0.0151891597534058</v>
+        <v>0.015191459085813</v>
       </c>
       <c r="H27">
         <v>0.0939557763622683</v>
@@ -2180,7 +2183,7 @@
         <v>0.05701</v>
       </c>
       <c r="L27">
-        <v>0.0062</v>
+        <v>0.0037</v>
       </c>
       <c r="M27">
         <v>0.03127</v>
@@ -2195,19 +2198,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2224,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.02875</v>
       </c>
       <c r="G28">
-        <v>0.0880165950682418</v>
+        <v>0.0880216382833227</v>
       </c>
       <c r="H28">
         <v>1.53</v>
@@ -2239,7 +2242,7 @@
         <v>0.284</v>
       </c>
       <c r="L28">
-        <v>0.01</v>
+        <v>0.01345</v>
       </c>
       <c r="M28">
         <v>0.1316</v>
@@ -2254,19 +2257,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2283,13 +2286,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.02875</v>
       </c>
       <c r="G29">
-        <v>0.0880165950682418</v>
+        <v>0.0880216382833227</v>
       </c>
       <c r="H29">
         <v>1.53</v>
@@ -2298,7 +2301,7 @@
         <v>0.284</v>
       </c>
       <c r="L29">
-        <v>0.01</v>
+        <v>0.01345</v>
       </c>
       <c r="M29">
         <v>0.1316</v>
@@ -2313,19 +2316,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2339,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0.0413</v>
@@ -2354,7 +2357,7 @@
         <v>0.345</v>
       </c>
       <c r="L30">
-        <v>0.0172</v>
+        <v>0.0235</v>
       </c>
       <c r="M30">
         <v>0.15069</v>
@@ -2369,19 +2372,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2395,7 +2398,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0.0413</v>
@@ -2410,7 +2413,7 @@
         <v>0.345</v>
       </c>
       <c r="L31">
-        <v>0.0172</v>
+        <v>0.0235</v>
       </c>
       <c r="M31">
         <v>0.15069</v>
@@ -2425,19 +2428,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,7 +2454,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>0.2875</v>
@@ -2466,7 +2469,7 @@
         <v>1.64</v>
       </c>
       <c r="L32">
-        <v>0.268</v>
+        <v>0.2605</v>
       </c>
       <c r="M32">
         <v>0.5632</v>
@@ -2481,19 +2484,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2507,7 +2510,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0.2875</v>
@@ -2522,7 +2525,7 @@
         <v>1.64</v>
       </c>
       <c r="L33">
-        <v>0.268</v>
+        <v>0.2605</v>
       </c>
       <c r="M33">
         <v>0.5632</v>
@@ -2537,19 +2540,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,7 +2566,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0.032</v>
@@ -2578,7 +2581,7 @@
         <v>0.2412</v>
       </c>
       <c r="L34">
-        <v>0.032</v>
+        <v>0.0305</v>
       </c>
       <c r="M34">
         <v>0.05928</v>
@@ -2593,19 +2596,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0.032</v>
@@ -2634,7 +2637,7 @@
         <v>0.2412</v>
       </c>
       <c r="L35">
-        <v>0.032</v>
+        <v>0.0305</v>
       </c>
       <c r="M35">
         <v>0.05928</v>
@@ -2649,19 +2652,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2678,22 +2681,22 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>1.35</v>
       </c>
       <c r="G36">
-        <v>1.5470633162526</v>
+        <v>1.48168137422016</v>
       </c>
       <c r="H36">
-        <v>8.539595966356471</v>
+        <v>5.85893634302636</v>
       </c>
       <c r="I36">
         <v>2.59</v>
       </c>
       <c r="L36">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="M36">
         <v>2.1</v>
@@ -2708,19 +2711,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2737,13 +2740,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>0.012</v>
       </c>
       <c r="G37">
-        <v>0.0146774306321218</v>
+        <v>0.0146801265609163</v>
       </c>
       <c r="H37">
         <v>0.045</v>
@@ -2767,19 +2770,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2796,13 +2799,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0.012</v>
       </c>
       <c r="G38">
-        <v>0.0146774306321218</v>
+        <v>0.0146801265609163</v>
       </c>
       <c r="H38">
         <v>0.045</v>
@@ -2826,19 +2829,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2855,7 +2858,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>432</v>
@@ -2876,7 +2879,7 @@
         <v>67.27272727272729</v>
       </c>
       <c r="L39">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M39">
         <v>1169.4</v>
@@ -2891,19 +2894,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2920,7 +2923,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>432</v>
@@ -2941,7 +2944,7 @@
         <v>67.27272727272729</v>
       </c>
       <c r="L40">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M40">
         <v>1169.4</v>
@@ -2956,19 +2959,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2985,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>432</v>
@@ -3006,7 +3009,7 @@
         <v>67.27272727272729</v>
       </c>
       <c r="L41">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M41">
         <v>1169.4</v>
@@ -3021,19 +3024,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3050,7 +3053,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>432</v>
@@ -3071,7 +3074,7 @@
         <v>67.27272727272729</v>
       </c>
       <c r="L42">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M42">
         <v>1169.4</v>
@@ -3086,19 +3089,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3115,13 +3118,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.00588</v>
       </c>
       <c r="G43">
-        <v>0.0162028587777271</v>
+        <v>0.0162076424518429</v>
       </c>
       <c r="H43">
         <v>0.0939557763622683</v>
@@ -3130,7 +3133,7 @@
         <v>0.06834</v>
       </c>
       <c r="L43">
-        <v>0.00194</v>
+        <v>0.00262</v>
       </c>
       <c r="M43">
         <v>0.03828</v>
@@ -3145,19 +3148,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3174,13 +3177,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.00588</v>
       </c>
       <c r="G44">
-        <v>0.0162028587777271</v>
+        <v>0.0162076424518429</v>
       </c>
       <c r="H44">
         <v>0.0939557763622683</v>
@@ -3189,7 +3192,7 @@
         <v>0.06834</v>
       </c>
       <c r="L44">
-        <v>0.00194</v>
+        <v>0.00262</v>
       </c>
       <c r="M44">
         <v>0.03828</v>
@@ -3204,19 +3207,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3233,13 +3236,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.0257</v>
       </c>
       <c r="G45">
-        <v>0.08483118917084451</v>
+        <v>0.0848309995776793</v>
       </c>
       <c r="H45">
         <v>1.53</v>
@@ -3248,7 +3251,7 @@
         <v>0.29427</v>
       </c>
       <c r="L45">
-        <v>0.01</v>
+        <v>0.01345</v>
       </c>
       <c r="M45">
         <v>0.1215</v>
@@ -3263,19 +3266,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3292,13 +3295,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0.0257</v>
       </c>
       <c r="G46">
-        <v>0.08483118917084451</v>
+        <v>0.0848309995776793</v>
       </c>
       <c r="H46">
         <v>1.53</v>
@@ -3307,7 +3310,7 @@
         <v>0.29427</v>
       </c>
       <c r="L46">
-        <v>0.01</v>
+        <v>0.01345</v>
       </c>
       <c r="M46">
         <v>0.1215</v>
@@ -3322,19 +3325,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3348,13 +3351,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0.0382</v>
       </c>
       <c r="G47">
-        <v>0.104157073422013</v>
+        <v>0.104169539790404</v>
       </c>
       <c r="H47">
         <v>1.603</v>
@@ -3363,7 +3366,7 @@
         <v>0.38505</v>
       </c>
       <c r="L47">
-        <v>0.0172</v>
+        <v>0.0235</v>
       </c>
       <c r="M47">
         <v>0.1446</v>
@@ -3378,19 +3381,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3404,13 +3407,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0.0382</v>
       </c>
       <c r="G48">
-        <v>0.104157073422013</v>
+        <v>0.104169539790404</v>
       </c>
       <c r="H48">
         <v>1.603</v>
@@ -3419,7 +3422,7 @@
         <v>0.38505</v>
       </c>
       <c r="L48">
-        <v>0.0172</v>
+        <v>0.0235</v>
       </c>
       <c r="M48">
         <v>0.1446</v>
@@ -3434,19 +3437,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3460,7 +3463,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0.3</v>
@@ -3475,7 +3478,7 @@
         <v>1.375</v>
       </c>
       <c r="L49">
-        <v>0.268</v>
+        <v>0.2695</v>
       </c>
       <c r="M49">
         <v>0.4989</v>
@@ -3490,19 +3493,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3516,7 +3519,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.3</v>
@@ -3531,7 +3534,7 @@
         <v>1.375</v>
       </c>
       <c r="L50">
-        <v>0.268</v>
+        <v>0.2695</v>
       </c>
       <c r="M50">
         <v>0.4989</v>
@@ -3546,19 +3549,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3572,7 +3575,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.031</v>
@@ -3587,7 +3590,7 @@
         <v>0.2145</v>
       </c>
       <c r="L51">
-        <v>0.034</v>
+        <v>0.0325</v>
       </c>
       <c r="M51">
         <v>0.058</v>
@@ -3602,19 +3605,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,7 +3631,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>0.031</v>
@@ -3643,7 +3646,7 @@
         <v>0.2145</v>
       </c>
       <c r="L52">
-        <v>0.034</v>
+        <v>0.0325</v>
       </c>
       <c r="M52">
         <v>0.058</v>
@@ -3658,19 +3661,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>1.475</v>
@@ -3702,7 +3705,7 @@
         <v>2.5</v>
       </c>
       <c r="L53">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="M53">
         <v>2.1</v>
@@ -3717,19 +3720,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3746,13 +3749,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>0.015</v>
       </c>
       <c r="G54">
-        <v>0.0189536348148831</v>
+        <v>0.0189544366874972</v>
       </c>
       <c r="H54">
         <v>0.079</v>
@@ -3761,7 +3764,7 @@
         <v>0.05475</v>
       </c>
       <c r="L54">
-        <v>0.021</v>
+        <v>0.0175</v>
       </c>
       <c r="M54">
         <v>0.0276</v>
@@ -3776,19 +3779,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3805,13 +3808,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>0.015</v>
       </c>
       <c r="G55">
-        <v>0.0189536348148831</v>
+        <v>0.0189544366874972</v>
       </c>
       <c r="H55">
         <v>0.079</v>
@@ -3820,7 +3823,7 @@
         <v>0.05475</v>
       </c>
       <c r="L55">
-        <v>0.021</v>
+        <v>0.0175</v>
       </c>
       <c r="M55">
         <v>0.0276</v>
@@ -3835,19 +3838,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3864,7 +3867,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>440</v>
@@ -3885,7 +3888,7 @@
         <v>72.72727272727271</v>
       </c>
       <c r="L56">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="M56">
         <v>1275</v>
@@ -3900,19 +3903,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3929,7 +3932,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>440</v>
@@ -3950,7 +3953,7 @@
         <v>72.72727272727271</v>
       </c>
       <c r="L57">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="M57">
         <v>1275</v>
@@ -3965,19 +3968,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3994,7 +3997,7 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>440</v>
@@ -4015,7 +4018,7 @@
         <v>72.72727272727271</v>
       </c>
       <c r="L58">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="M58">
         <v>1275</v>
@@ -4030,19 +4033,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4059,7 +4062,7 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>440</v>
@@ -4080,7 +4083,7 @@
         <v>72.72727272727271</v>
       </c>
       <c r="L59">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="M59">
         <v>1275</v>
@@ -4095,19 +4098,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4124,13 +4127,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
-        <v>0.00312</v>
+        <v>0.00315</v>
       </c>
       <c r="G60">
-        <v>0.0139387757012899</v>
+        <v>0.0139525129993031</v>
       </c>
       <c r="H60">
         <v>0.0935074670612273</v>
@@ -4139,7 +4142,7 @@
         <v>0.0563</v>
       </c>
       <c r="L60">
-        <v>0.00194</v>
+        <v>0.00256</v>
       </c>
       <c r="M60">
         <v>0.0337</v>
@@ -4154,19 +4157,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4183,13 +4186,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
-        <v>0.00312</v>
+        <v>0.00315</v>
       </c>
       <c r="G61">
-        <v>0.0139387757012899</v>
+        <v>0.0139525129993031</v>
       </c>
       <c r="H61">
         <v>0.0935074670612273</v>
@@ -4198,7 +4201,7 @@
         <v>0.0563</v>
       </c>
       <c r="L61">
-        <v>0.00194</v>
+        <v>0.00256</v>
       </c>
       <c r="M61">
         <v>0.0337</v>
@@ -4213,19 +4216,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4242,13 +4245,13 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>0.0259</v>
       </c>
       <c r="G62">
-        <v>0.0531626521192737</v>
+        <v>0.0531622908319508</v>
       </c>
       <c r="H62">
         <v>0.3172</v>
@@ -4257,7 +4260,7 @@
         <v>0.21675</v>
       </c>
       <c r="L62">
-        <v>0.006</v>
+        <v>0.01395</v>
       </c>
       <c r="M62">
         <v>0.09134</v>
@@ -4272,19 +4275,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4301,13 +4304,13 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>0.0259</v>
       </c>
       <c r="G63">
-        <v>0.0531626521192737</v>
+        <v>0.0531622908319508</v>
       </c>
       <c r="H63">
         <v>0.3172</v>
@@ -4316,7 +4319,7 @@
         <v>0.21675</v>
       </c>
       <c r="L63">
-        <v>0.006</v>
+        <v>0.01395</v>
       </c>
       <c r="M63">
         <v>0.09134</v>
@@ -4331,19 +4334,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4357,13 +4360,13 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>0.037</v>
       </c>
       <c r="G64">
-        <v>0.0690843461492862</v>
+        <v>0.06909681251767689</v>
       </c>
       <c r="H64">
         <v>0.4251</v>
@@ -4372,7 +4375,7 @@
         <v>0.2405</v>
       </c>
       <c r="L64">
-        <v>0.0165</v>
+        <v>0.02515</v>
       </c>
       <c r="M64">
         <v>0.1236</v>
@@ -4387,19 +4390,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4413,13 +4416,13 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>0.037</v>
       </c>
       <c r="G65">
-        <v>0.0690843461492862</v>
+        <v>0.06909681251767689</v>
       </c>
       <c r="H65">
         <v>0.4251</v>
@@ -4428,7 +4431,7 @@
         <v>0.2405</v>
       </c>
       <c r="L65">
-        <v>0.0165</v>
+        <v>0.02515</v>
       </c>
       <c r="M65">
         <v>0.1236</v>
@@ -4443,19 +4446,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4469,7 +4472,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.289</v>
@@ -4484,7 +4487,7 @@
         <v>0.72725</v>
       </c>
       <c r="L66">
-        <v>0.26</v>
+        <v>0.2695</v>
       </c>
       <c r="M66">
         <v>0.419</v>
@@ -4499,19 +4502,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4525,7 +4528,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.289</v>
@@ -4540,7 +4543,7 @@
         <v>0.72725</v>
       </c>
       <c r="L67">
-        <v>0.26</v>
+        <v>0.2695</v>
       </c>
       <c r="M67">
         <v>0.419</v>
@@ -4555,19 +4558,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4581,7 +4584,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>0.034</v>
@@ -4596,7 +4599,7 @@
         <v>0.1045</v>
       </c>
       <c r="L68">
-        <v>0.035</v>
+        <v>0.0365</v>
       </c>
       <c r="M68">
         <v>0.05815</v>
@@ -4611,19 +4614,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,7 +4640,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>0.034</v>
@@ -4652,7 +4655,7 @@
         <v>0.1045</v>
       </c>
       <c r="L69">
-        <v>0.035</v>
+        <v>0.0365</v>
       </c>
       <c r="M69">
         <v>0.05815</v>
@@ -4667,19 +4670,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4696,7 +4699,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>1.45</v>
@@ -4711,7 +4714,7 @@
         <v>2.521</v>
       </c>
       <c r="L70">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -4726,19 +4729,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,13 +4758,13 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>0.017</v>
       </c>
       <c r="G71">
-        <v>0.0213525847382512</v>
+        <v>0.0213533451346956</v>
       </c>
       <c r="H71">
         <v>0.079</v>
@@ -4770,7 +4773,7 @@
         <v>0.0528</v>
       </c>
       <c r="L71">
-        <v>0.0255</v>
+        <v>0.023</v>
       </c>
       <c r="M71">
         <v>0.03292</v>
@@ -4785,19 +4788,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4814,13 +4817,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>0.017</v>
       </c>
       <c r="G72">
-        <v>0.0213525847382512</v>
+        <v>0.0213533451346956</v>
       </c>
       <c r="H72">
         <v>0.079</v>
@@ -4829,7 +4832,7 @@
         <v>0.0528</v>
       </c>
       <c r="L72">
-        <v>0.0255</v>
+        <v>0.023</v>
       </c>
       <c r="M72">
         <v>0.03292</v>
@@ -4844,19 +4847,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4873,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>436</v>
@@ -4894,7 +4897,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L73">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M73">
         <v>1155.36</v>
@@ -4909,19 +4912,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4938,7 +4941,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>436</v>
@@ -4959,7 +4962,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L74">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M74">
         <v>1155.36</v>
@@ -4974,19 +4977,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5003,7 +5006,7 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>436</v>
@@ -5024,7 +5027,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L75">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M75">
         <v>1155.36</v>
@@ -5039,19 +5042,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5068,7 +5071,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>436</v>
@@ -5089,7 +5092,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L76">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M76">
         <v>1155.36</v>
@@ -5104,19 +5107,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5133,13 +5136,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
-        <v>0.00342</v>
+        <v>0.00346</v>
       </c>
       <c r="G77">
-        <v>0.0098465077333077</v>
+        <v>0.0098640622588963</v>
       </c>
       <c r="H77">
         <v>0.0935074670612273</v>
@@ -5148,7 +5151,7 @@
         <v>0.05103</v>
       </c>
       <c r="L77">
-        <v>0.00228</v>
+        <v>0.00267</v>
       </c>
       <c r="M77">
         <v>0.01584</v>
@@ -5163,19 +5166,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5192,13 +5195,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
-        <v>0.00342</v>
+        <v>0.00346</v>
       </c>
       <c r="G78">
-        <v>0.0098465077333077</v>
+        <v>0.0098640622588963</v>
       </c>
       <c r="H78">
         <v>0.0935074670612273</v>
@@ -5207,7 +5210,7 @@
         <v>0.05103</v>
       </c>
       <c r="L78">
-        <v>0.00228</v>
+        <v>0.00267</v>
       </c>
       <c r="M78">
         <v>0.01584</v>
@@ -5222,19 +5225,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5251,13 +5254,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>0.0295</v>
       </c>
       <c r="G79">
-        <v>0.06788272115516809</v>
+        <v>0.06788186406062589</v>
       </c>
       <c r="H79">
         <v>0.49</v>
@@ -5266,7 +5269,7 @@
         <v>0.29024</v>
       </c>
       <c r="L79">
-        <v>0.0055</v>
+        <v>0.0139</v>
       </c>
       <c r="M79">
         <v>0.13112</v>
@@ -5281,19 +5284,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5310,13 +5313,13 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>0.0295</v>
       </c>
       <c r="G80">
-        <v>0.06788272115516809</v>
+        <v>0.06788186406062589</v>
       </c>
       <c r="H80">
         <v>0.49</v>
@@ -5325,7 +5328,7 @@
         <v>0.29024</v>
       </c>
       <c r="L80">
-        <v>0.0055</v>
+        <v>0.0139</v>
       </c>
       <c r="M80">
         <v>0.13112</v>
@@ -5340,19 +5343,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5366,13 +5369,13 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>0.0376</v>
       </c>
       <c r="G81">
-        <v>0.0812403058149337</v>
+        <v>0.0812563744802748</v>
       </c>
       <c r="H81">
         <v>0.51</v>
@@ -5381,7 +5384,7 @@
         <v>0.29508</v>
       </c>
       <c r="L81">
-        <v>0.012</v>
+        <v>0.0172</v>
       </c>
       <c r="M81">
         <v>0.14692</v>
@@ -5396,19 +5399,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5422,13 +5425,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>0.0376</v>
       </c>
       <c r="G82">
-        <v>0.0812403058149337</v>
+        <v>0.0812563744802748</v>
       </c>
       <c r="H82">
         <v>0.51</v>
@@ -5437,7 +5440,7 @@
         <v>0.29508</v>
       </c>
       <c r="L82">
-        <v>0.012</v>
+        <v>0.0172</v>
       </c>
       <c r="M82">
         <v>0.14692</v>
@@ -5452,19 +5455,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5478,7 +5481,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.3015</v>
@@ -5493,7 +5496,7 @@
         <v>0.8056</v>
       </c>
       <c r="L83">
-        <v>0.274</v>
+        <v>0.286</v>
       </c>
       <c r="M83">
         <v>0.48408</v>
@@ -5508,19 +5511,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5534,7 +5537,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.3015</v>
@@ -5549,7 +5552,7 @@
         <v>0.8056</v>
       </c>
       <c r="L84">
-        <v>0.274</v>
+        <v>0.286</v>
       </c>
       <c r="M84">
         <v>0.48408</v>
@@ -5564,19 +5567,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5590,7 +5593,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>0.04</v>
@@ -5620,19 +5623,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,7 +5649,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>0.04</v>
@@ -5676,19 +5679,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5705,7 +5708,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>0.995</v>
@@ -5720,7 +5723,7 @@
         <v>2.514</v>
       </c>
       <c r="L87">
-        <v>1.58</v>
+        <v>1.445</v>
       </c>
       <c r="M87">
         <v>1.7872</v>
@@ -5735,19 +5738,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5764,13 +5767,13 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>0.016</v>
       </c>
       <c r="G88">
-        <v>0.0211175828591499</v>
+        <v>0.0211178975752651</v>
       </c>
       <c r="H88">
         <v>0.079</v>
@@ -5779,7 +5782,7 @@
         <v>0.0528</v>
       </c>
       <c r="L88">
-        <v>0.0255</v>
+        <v>0.02</v>
       </c>
       <c r="M88">
         <v>0.03228</v>
@@ -5794,19 +5797,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5823,13 +5826,13 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <v>0.016</v>
       </c>
       <c r="G89">
-        <v>0.0211175828591499</v>
+        <v>0.0211178975752651</v>
       </c>
       <c r="H89">
         <v>0.079</v>
@@ -5838,7 +5841,7 @@
         <v>0.0528</v>
       </c>
       <c r="L89">
-        <v>0.0255</v>
+        <v>0.02</v>
       </c>
       <c r="M89">
         <v>0.03228</v>
@@ -5853,19 +5856,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5882,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
         <v>436</v>
@@ -5903,7 +5906,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L90">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="M90">
         <v>1187.04</v>
@@ -5918,19 +5921,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5947,7 +5950,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>436</v>
@@ -5968,7 +5971,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L91">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="M91">
         <v>1187.04</v>
@@ -5983,19 +5986,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6012,7 +6015,7 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>436</v>
@@ -6033,7 +6036,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L92">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="M92">
         <v>1187.04</v>
@@ -6048,19 +6051,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6077,7 +6080,7 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>436</v>
@@ -6098,7 +6101,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L93">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="M93">
         <v>1187.04</v>
@@ -6113,19 +6116,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6142,13 +6145,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <v>0.00502</v>
       </c>
       <c r="G94">
-        <v>0.0125475917509759</v>
+        <v>0.0125599790764054</v>
       </c>
       <c r="H94">
         <v>0.0935074670612273</v>
@@ -6157,7 +6160,7 @@
         <v>0.05374</v>
       </c>
       <c r="L94">
-        <v>0.00385</v>
+        <v>0.00462</v>
       </c>
       <c r="M94">
         <v>0.02292</v>
@@ -6172,19 +6175,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6201,13 +6204,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
         <v>0.00502</v>
       </c>
       <c r="G95">
-        <v>0.0125475917509759</v>
+        <v>0.0125599790764054</v>
       </c>
       <c r="H95">
         <v>0.0935074670612273</v>
@@ -6216,7 +6219,7 @@
         <v>0.05374</v>
       </c>
       <c r="L95">
-        <v>0.00385</v>
+        <v>0.00462</v>
       </c>
       <c r="M95">
         <v>0.02292</v>
@@ -6231,19 +6234,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6260,13 +6263,13 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>0.04155</v>
       </c>
       <c r="G96">
-        <v>0.07873949919462971</v>
+        <v>0.07873787991164261</v>
       </c>
       <c r="H96">
         <v>0.49</v>
@@ -6275,7 +6278,7 @@
         <v>0.30992</v>
       </c>
       <c r="L96">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="M96">
         <v>0.1388</v>
@@ -6290,19 +6293,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6319,13 +6322,13 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>0.04155</v>
       </c>
       <c r="G97">
-        <v>0.07873949919462971</v>
+        <v>0.07873787991164261</v>
       </c>
       <c r="H97">
         <v>0.49</v>
@@ -6334,7 +6337,7 @@
         <v>0.30992</v>
       </c>
       <c r="L97">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="M97">
         <v>0.1388</v>
@@ -6349,19 +6352,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6375,13 +6378,13 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>0.055</v>
       </c>
       <c r="G98">
-        <v>0.0942376767204894</v>
+        <v>0.0942578036741429</v>
       </c>
       <c r="H98">
         <v>0.51</v>
@@ -6390,7 +6393,7 @@
         <v>0.37706</v>
       </c>
       <c r="L98">
-        <v>0.01425</v>
+        <v>0.0263</v>
       </c>
       <c r="M98">
         <v>0.1664</v>
@@ -6405,19 +6408,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6431,13 +6434,13 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>0.055</v>
       </c>
       <c r="G99">
-        <v>0.0942376767204894</v>
+        <v>0.0942578036741429</v>
       </c>
       <c r="H99">
         <v>0.51</v>
@@ -6446,7 +6449,7 @@
         <v>0.37706</v>
       </c>
       <c r="L99">
-        <v>0.01425</v>
+        <v>0.0263</v>
       </c>
       <c r="M99">
         <v>0.1664</v>
@@ -6461,19 +6464,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6487,7 +6490,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.3185</v>
@@ -6502,7 +6505,7 @@
         <v>0.8056</v>
       </c>
       <c r="L100">
-        <v>0.283</v>
+        <v>0.303</v>
       </c>
       <c r="M100">
         <v>0.49712</v>
@@ -6517,19 +6520,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6543,7 +6546,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.3185</v>
@@ -6558,7 +6561,7 @@
         <v>0.8056</v>
       </c>
       <c r="L101">
-        <v>0.283</v>
+        <v>0.303</v>
       </c>
       <c r="M101">
         <v>0.49712</v>
@@ -6573,19 +6576,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6599,7 +6602,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>0.0415</v>
@@ -6629,19 +6632,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6655,7 +6658,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>0.0415</v>
@@ -6685,19 +6688,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6714,7 +6717,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>0.425</v>
@@ -6729,7 +6732,7 @@
         <v>2.0275</v>
       </c>
       <c r="L104">
-        <v>1.295</v>
+        <v>1</v>
       </c>
       <c r="M104">
         <v>1.597</v>
@@ -6744,19 +6747,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6773,13 +6776,13 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>0.016</v>
       </c>
       <c r="G105">
-        <v>0.0201693069970809</v>
+        <v>0.0201696217131962</v>
       </c>
       <c r="H105">
         <v>0.079</v>
@@ -6788,7 +6791,7 @@
         <v>0.0528</v>
       </c>
       <c r="L105">
-        <v>0.0215</v>
+        <v>0.018</v>
       </c>
       <c r="M105">
         <v>0.02964</v>
@@ -6803,19 +6806,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6832,13 +6835,13 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <v>0.016</v>
       </c>
       <c r="G106">
-        <v>0.0201693069970809</v>
+        <v>0.0201696217131962</v>
       </c>
       <c r="H106">
         <v>0.079</v>
@@ -6847,7 +6850,7 @@
         <v>0.0528</v>
       </c>
       <c r="L106">
-        <v>0.0215</v>
+        <v>0.018</v>
       </c>
       <c r="M106">
         <v>0.02964</v>
@@ -6862,19 +6865,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6891,16 +6894,16 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>380</v>
       </c>
       <c r="G107">
-        <v>1260.02184688269</v>
+        <v>1269.71481071213</v>
       </c>
       <c r="H107">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I107">
         <v>7300</v>
@@ -6912,7 +6915,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L107">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M107">
         <v>1628</v>
@@ -6927,19 +6930,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6956,16 +6959,16 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>380</v>
       </c>
       <c r="G108">
-        <v>1260.02184688269</v>
+        <v>1269.71481071213</v>
       </c>
       <c r="H108">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I108">
         <v>7300</v>
@@ -6977,7 +6980,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L108">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M108">
         <v>1628</v>
@@ -6992,19 +6995,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7021,16 +7024,16 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>380</v>
       </c>
       <c r="G109">
-        <v>1260.02184688269</v>
+        <v>1269.71481071213</v>
       </c>
       <c r="H109">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I109">
         <v>7300</v>
@@ -7042,7 +7045,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L109">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M109">
         <v>1628</v>
@@ -7057,19 +7060,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7086,16 +7089,16 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>380</v>
       </c>
       <c r="G110">
-        <v>1260.02184688269</v>
+        <v>1269.71481071213</v>
       </c>
       <c r="H110">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I110">
         <v>7300</v>
@@ -7107,7 +7110,7 @@
         <v>63.7931034482759</v>
       </c>
       <c r="L110">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M110">
         <v>1628</v>
@@ -7122,19 +7125,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7151,13 +7154,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
-        <v>0.007849999999999999</v>
+        <v>0.007820000000000001</v>
       </c>
       <c r="G111">
-        <v>0.0229849836514562</v>
+        <v>0.0229948461517621</v>
       </c>
       <c r="H111">
         <v>0.242573401277614</v>
@@ -7166,7 +7169,7 @@
         <v>0.07364</v>
       </c>
       <c r="L111">
-        <v>0.007849999999999999</v>
+        <v>0.00893</v>
       </c>
       <c r="M111">
         <v>0.04377</v>
@@ -7181,19 +7184,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7210,13 +7213,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
-        <v>0.007849999999999999</v>
+        <v>0.007820000000000001</v>
       </c>
       <c r="G112">
-        <v>0.0229849836514562</v>
+        <v>0.0229948461517621</v>
       </c>
       <c r="H112">
         <v>0.242573401277614</v>
@@ -7225,7 +7228,7 @@
         <v>0.07364</v>
       </c>
       <c r="L112">
-        <v>0.007849999999999999</v>
+        <v>0.00893</v>
       </c>
       <c r="M112">
         <v>0.04377</v>
@@ -7240,19 +7243,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7269,13 +7272,13 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>0.0505</v>
       </c>
       <c r="G113">
-        <v>0.09423605091876761</v>
+        <v>0.0942344316357806</v>
       </c>
       <c r="H113">
         <v>0.49</v>
@@ -7284,7 +7287,7 @@
         <v>0.3474</v>
       </c>
       <c r="L113">
-        <v>0.008999999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="M113">
         <v>0.16516</v>
@@ -7299,19 +7302,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7328,13 +7331,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>0.0505</v>
       </c>
       <c r="G114">
-        <v>0.09423605091876761</v>
+        <v>0.0942344316357806</v>
       </c>
       <c r="H114">
         <v>0.49</v>
@@ -7343,7 +7346,7 @@
         <v>0.3474</v>
       </c>
       <c r="L114">
-        <v>0.008999999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="M114">
         <v>0.16516</v>
@@ -7358,19 +7361,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7384,13 +7387,13 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>0.08500000000000001</v>
       </c>
       <c r="G115">
-        <v>0.117201469823938</v>
+        <v>0.117221596777591</v>
       </c>
       <c r="H115">
         <v>0.51</v>
@@ -7399,7 +7402,7 @@
         <v>0.42306</v>
       </c>
       <c r="L115">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="M115">
         <v>0.175</v>
@@ -7414,19 +7417,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7440,13 +7443,13 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>0.08500000000000001</v>
       </c>
       <c r="G116">
-        <v>0.117201469823938</v>
+        <v>0.117221596777591</v>
       </c>
       <c r="H116">
         <v>0.51</v>
@@ -7455,7 +7458,7 @@
         <v>0.42306</v>
       </c>
       <c r="L116">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="M116">
         <v>0.175</v>
@@ -7470,19 +7473,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7496,7 +7499,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.34</v>
@@ -7511,7 +7514,7 @@
         <v>0.826</v>
       </c>
       <c r="L117">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="M117">
         <v>0.5427999999999999</v>
@@ -7526,19 +7529,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7552,7 +7555,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.34</v>
@@ -7567,7 +7570,7 @@
         <v>0.826</v>
       </c>
       <c r="L118">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="M118">
         <v>0.5427999999999999</v>
@@ -7582,19 +7585,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7608,7 +7611,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>0.042</v>
@@ -7638,19 +7641,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7664,7 +7667,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>0.042</v>
@@ -7694,19 +7697,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7723,7 +7726,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>0.33</v>
@@ -7738,7 +7741,7 @@
         <v>2.0505</v>
       </c>
       <c r="L121">
-        <v>1.15</v>
+        <v>0.475</v>
       </c>
       <c r="M121">
         <v>1.55</v>
@@ -7753,19 +7756,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7782,13 +7785,13 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>0.0135</v>
       </c>
       <c r="G122">
-        <v>0.0179968932039775</v>
+        <v>0.0179972079200927</v>
       </c>
       <c r="H122">
         <v>0.079</v>
@@ -7797,7 +7800,7 @@
         <v>0.0524</v>
       </c>
       <c r="L122">
-        <v>0.0175</v>
+        <v>0.017</v>
       </c>
       <c r="M122">
         <v>0.02556</v>
@@ -7812,19 +7815,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7841,13 +7844,13 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
         <v>0.0135</v>
       </c>
       <c r="G123">
-        <v>0.0179968932039775</v>
+        <v>0.0179972079200927</v>
       </c>
       <c r="H123">
         <v>0.079</v>
@@ -7856,7 +7859,7 @@
         <v>0.0524</v>
       </c>
       <c r="L123">
-        <v>0.0175</v>
+        <v>0.017</v>
       </c>
       <c r="M123">
         <v>0.02556</v>
@@ -7871,19 +7874,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7900,16 +7903,16 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
         <v>300</v>
       </c>
       <c r="G124">
-        <v>1239.24598481372</v>
+        <v>1248.93894864316</v>
       </c>
       <c r="H124">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I124">
         <v>7300</v>
@@ -7921,7 +7924,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L124">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M124">
         <v>1628</v>
@@ -7936,19 +7939,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7965,16 +7968,16 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>300</v>
       </c>
       <c r="G125">
-        <v>1239.24598481372</v>
+        <v>1248.93894864316</v>
       </c>
       <c r="H125">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I125">
         <v>7300</v>
@@ -7986,7 +7989,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L125">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M125">
         <v>1628</v>
@@ -8001,19 +8004,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8030,16 +8033,16 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>300</v>
       </c>
       <c r="G126">
-        <v>1239.24598481372</v>
+        <v>1248.93894864316</v>
       </c>
       <c r="H126">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I126">
         <v>7300</v>
@@ -8051,7 +8054,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L126">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M126">
         <v>1628</v>
@@ -8066,19 +8069,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8095,16 +8098,16 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>300</v>
       </c>
       <c r="G127">
-        <v>1239.24598481372</v>
+        <v>1248.93894864316</v>
       </c>
       <c r="H127">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I127">
         <v>7300</v>
@@ -8116,7 +8119,7 @@
         <v>58.6206896551724</v>
       </c>
       <c r="L127">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M127">
         <v>1628</v>
@@ -8131,19 +8134,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8160,13 +8163,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
-        <v>0.009220000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="G128">
-        <v>0.0262061145197537</v>
+        <v>0.0262118813745464</v>
       </c>
       <c r="H128">
         <v>0.242573401277614</v>
@@ -8175,7 +8178,7 @@
         <v>0.0725</v>
       </c>
       <c r="L128">
-        <v>0.01016</v>
+        <v>0.01298</v>
       </c>
       <c r="M128">
         <v>0.0517</v>
@@ -8190,19 +8193,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8219,13 +8222,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
-        <v>0.009220000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="G129">
-        <v>0.0262061145197537</v>
+        <v>0.0262118813745464</v>
       </c>
       <c r="H129">
         <v>0.242573401277614</v>
@@ -8234,7 +8237,7 @@
         <v>0.0725</v>
       </c>
       <c r="L129">
-        <v>0.01016</v>
+        <v>0.01298</v>
       </c>
       <c r="M129">
         <v>0.0517</v>
@@ -8249,19 +8252,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8278,13 +8281,13 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>0.0565</v>
       </c>
       <c r="G130">
-        <v>0.09939388080566321</v>
+        <v>0.0993926041227238</v>
       </c>
       <c r="H130">
         <v>0.49</v>
@@ -8293,7 +8296,7 @@
         <v>0.3474</v>
       </c>
       <c r="L130">
-        <v>0.0155</v>
+        <v>0.031</v>
       </c>
       <c r="M130">
         <v>0.1944</v>
@@ -8308,19 +8311,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8337,13 +8340,13 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>0.0565</v>
       </c>
       <c r="G131">
-        <v>0.09939388080566321</v>
+        <v>0.0993926041227238</v>
       </c>
       <c r="H131">
         <v>0.49</v>
@@ -8352,7 +8355,7 @@
         <v>0.3474</v>
       </c>
       <c r="L131">
-        <v>0.0155</v>
+        <v>0.031</v>
       </c>
       <c r="M131">
         <v>0.1944</v>
@@ -8367,19 +8370,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8393,13 +8396,13 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>0.0975</v>
       </c>
       <c r="G132">
-        <v>0.126997348475477</v>
+        <v>0.127005653872898</v>
       </c>
       <c r="H132">
         <v>0.51</v>
@@ -8408,7 +8411,7 @@
         <v>0.386</v>
       </c>
       <c r="L132">
-        <v>0.0325</v>
+        <v>0.05</v>
       </c>
       <c r="M132">
         <v>0.2006</v>
@@ -8423,19 +8426,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8449,13 +8452,13 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>0.0975</v>
       </c>
       <c r="G133">
-        <v>0.126997348475477</v>
+        <v>0.127005653872898</v>
       </c>
       <c r="H133">
         <v>0.51</v>
@@ -8464,7 +8467,7 @@
         <v>0.386</v>
       </c>
       <c r="L133">
-        <v>0.0325</v>
+        <v>0.05</v>
       </c>
       <c r="M133">
         <v>0.2006</v>
@@ -8479,19 +8482,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8505,7 +8508,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.38</v>
@@ -8520,7 +8523,7 @@
         <v>0.826</v>
       </c>
       <c r="L134">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="M134">
         <v>0.5427999999999999</v>
@@ -8535,19 +8538,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8561,7 +8564,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.38</v>
@@ -8576,7 +8579,7 @@
         <v>0.826</v>
       </c>
       <c r="L135">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="M135">
         <v>0.5427999999999999</v>
@@ -8591,19 +8594,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8617,7 +8620,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>0.0415</v>
@@ -8647,19 +8650,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8673,7 +8676,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>0.0415</v>
@@ -8703,19 +8706,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8732,7 +8735,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>0.32</v>
@@ -8747,7 +8750,7 @@
         <v>1.593</v>
       </c>
       <c r="L138">
-        <v>0.4525</v>
+        <v>0.43</v>
       </c>
       <c r="M138">
         <v>0.9847</v>
@@ -8762,19 +8765,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8791,7 +8794,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>0.012</v>
@@ -8821,19 +8824,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8850,7 +8853,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>0.012</v>
@@ -8880,19 +8883,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8909,16 +8912,16 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
         <v>230</v>
       </c>
       <c r="G141">
-        <v>937.174018969421</v>
+        <v>946.702695276332</v>
       </c>
       <c r="H141">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I141">
         <v>3430</v>
@@ -8930,7 +8933,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L141">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M141">
         <v>1047</v>
@@ -8945,19 +8948,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8974,16 +8977,16 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>230</v>
       </c>
       <c r="G142">
-        <v>937.174018969421</v>
+        <v>946.702695276332</v>
       </c>
       <c r="H142">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I142">
         <v>3430</v>
@@ -8995,7 +8998,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L142">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M142">
         <v>1047</v>
@@ -9010,19 +9013,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9039,16 +9042,16 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>230</v>
       </c>
       <c r="G143">
-        <v>937.174018969421</v>
+        <v>946.702695276332</v>
       </c>
       <c r="H143">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I143">
         <v>3430</v>
@@ -9060,7 +9063,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L143">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M143">
         <v>1047</v>
@@ -9075,19 +9078,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9104,16 +9107,16 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>230</v>
       </c>
       <c r="G144">
-        <v>937.174018969421</v>
+        <v>946.702695276332</v>
       </c>
       <c r="H144">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I144">
         <v>3430</v>
@@ -9125,7 +9128,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L144">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M144">
         <v>1047</v>
@@ -9140,19 +9143,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9169,13 +9172,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
         <v>0.0162</v>
       </c>
       <c r="G145">
-        <v>0.033346753388927</v>
+        <v>0.0333434546628951</v>
       </c>
       <c r="H145">
         <v>0.242573401277614</v>
@@ -9199,19 +9202,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9228,13 +9231,13 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
         <v>0.0162</v>
       </c>
       <c r="G146">
-        <v>0.033346753388927</v>
+        <v>0.0333434546628951</v>
       </c>
       <c r="H146">
         <v>0.242573401277614</v>
@@ -9258,19 +9261,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9287,13 +9290,13 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>0.055</v>
       </c>
       <c r="G147">
-        <v>0.09740415401234689</v>
+        <v>0.09740289896810141</v>
       </c>
       <c r="H147">
         <v>0.49</v>
@@ -9302,7 +9305,7 @@
         <v>0.34495</v>
       </c>
       <c r="L147">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="M147">
         <v>0.19315</v>
@@ -9317,19 +9320,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9346,13 +9349,13 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>0.055</v>
       </c>
       <c r="G148">
-        <v>0.09740415401234689</v>
+        <v>0.09740289896810141</v>
       </c>
       <c r="H148">
         <v>0.49</v>
@@ -9361,7 +9364,7 @@
         <v>0.34495</v>
       </c>
       <c r="L148">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="M148">
         <v>0.19315</v>
@@ -9376,19 +9379,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9402,13 +9405,13 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>0.092</v>
       </c>
       <c r="G149">
-        <v>0.129395698501316</v>
+        <v>0.129403863129289</v>
       </c>
       <c r="H149">
         <v>0.51</v>
@@ -9432,19 +9435,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9458,13 +9461,13 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.092</v>
       </c>
       <c r="G150">
-        <v>0.129395698501316</v>
+        <v>0.129403863129289</v>
       </c>
       <c r="H150">
         <v>0.51</v>
@@ -9488,19 +9491,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9514,7 +9517,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.38</v>
@@ -9529,7 +9532,7 @@
         <v>0.8255</v>
       </c>
       <c r="L151">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="M151">
         <v>0.5488</v>
@@ -9544,19 +9547,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9570,7 +9573,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>0.38</v>
@@ -9585,7 +9588,7 @@
         <v>0.8255</v>
       </c>
       <c r="L152">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="M152">
         <v>0.5488</v>
@@ -9600,19 +9603,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9626,7 +9629,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>0.036</v>
@@ -9656,19 +9659,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9682,7 +9685,7 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>0.036</v>
@@ -9712,19 +9715,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9741,7 +9744,7 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>0.0115</v>
@@ -9771,19 +9774,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9800,7 +9803,7 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
         <v>0.0115</v>
@@ -9830,19 +9833,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9859,16 +9862,16 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
         <v>225</v>
       </c>
       <c r="G157">
-        <v>687.539088261997</v>
+        <v>697.2458451948889</v>
       </c>
       <c r="H157">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I157">
         <v>2360</v>
@@ -9880,13 +9883,13 @@
         <v>44.8275862068966</v>
       </c>
       <c r="L157">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M157">
-        <v>487.84</v>
+        <v>487.984</v>
       </c>
       <c r="N157">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O157">
         <v>1841577.109</v>
@@ -9895,19 +9898,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9924,16 +9927,16 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>225</v>
       </c>
       <c r="G158">
-        <v>687.539088261997</v>
+        <v>697.2458451948889</v>
       </c>
       <c r="H158">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I158">
         <v>2360</v>
@@ -9945,13 +9948,13 @@
         <v>44.8275862068966</v>
       </c>
       <c r="L158">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M158">
-        <v>487.84</v>
+        <v>487.984</v>
       </c>
       <c r="N158">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O158">
         <v>1841577.109</v>
@@ -9960,19 +9963,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9989,16 +9992,16 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>225</v>
       </c>
       <c r="G159">
-        <v>687.539088261997</v>
+        <v>697.2458451948889</v>
       </c>
       <c r="H159">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I159">
         <v>2360</v>
@@ -10010,13 +10013,13 @@
         <v>44.8275862068966</v>
       </c>
       <c r="L159">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M159">
-        <v>487.84</v>
+        <v>487.984</v>
       </c>
       <c r="N159">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O159">
         <v>1841577.109</v>
@@ -10025,19 +10028,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10054,16 +10057,16 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>225</v>
       </c>
       <c r="G160">
-        <v>687.539088261997</v>
+        <v>697.2458451948889</v>
       </c>
       <c r="H160">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I160">
         <v>2360</v>
@@ -10075,13 +10078,13 @@
         <v>44.8275862068966</v>
       </c>
       <c r="L160">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M160">
-        <v>487.84</v>
+        <v>487.984</v>
       </c>
       <c r="N160">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O160">
         <v>1841577.109</v>
@@ -10090,19 +10093,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10119,13 +10122,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>0.0333</v>
       </c>
       <c r="G161">
-        <v>0.0382275842441588</v>
+        <v>0.0382196463000453</v>
       </c>
       <c r="H161">
         <v>0.242573401277614</v>
@@ -10149,19 +10152,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10178,13 +10181,13 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>0.0333</v>
       </c>
       <c r="G162">
-        <v>0.0382275842441588</v>
+        <v>0.0382196463000453</v>
       </c>
       <c r="H162">
         <v>0.242573401277614</v>
@@ -10208,19 +10211,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10237,13 +10240,13 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>0.0455</v>
       </c>
       <c r="G163">
-        <v>0.08909643321187539</v>
+        <v>0.08909567102343061</v>
       </c>
       <c r="H163">
         <v>0.368</v>
@@ -10252,7 +10255,7 @@
         <v>0.3238</v>
       </c>
       <c r="L163">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="M163">
         <v>0.2008</v>
@@ -10267,19 +10270,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10296,13 +10299,13 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>0.0455</v>
       </c>
       <c r="G164">
-        <v>0.08909643321187539</v>
+        <v>0.08909567102343061</v>
       </c>
       <c r="H164">
         <v>0.368</v>
@@ -10311,7 +10314,7 @@
         <v>0.3238</v>
       </c>
       <c r="L164">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="M164">
         <v>0.2008</v>
@@ -10326,19 +10329,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10352,13 +10355,13 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>0.08400000000000001</v>
       </c>
       <c r="G165">
-        <v>0.125242198491763</v>
+        <v>0.125246256780075</v>
       </c>
       <c r="H165">
         <v>0.43</v>
@@ -10367,7 +10370,7 @@
         <v>0.3554</v>
       </c>
       <c r="L165">
-        <v>0.062</v>
+        <v>0.0585</v>
       </c>
       <c r="M165">
         <v>0.2562</v>
@@ -10382,19 +10385,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10408,13 +10411,13 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.08400000000000001</v>
       </c>
       <c r="G166">
-        <v>0.125242198491763</v>
+        <v>0.125246256780075</v>
       </c>
       <c r="H166">
         <v>0.43</v>
@@ -10423,7 +10426,7 @@
         <v>0.3554</v>
       </c>
       <c r="L166">
-        <v>0.062</v>
+        <v>0.0585</v>
       </c>
       <c r="M166">
         <v>0.2562</v>
@@ -10438,19 +10441,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10464,7 +10467,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.36</v>
@@ -10479,7 +10482,7 @@
         <v>0.706</v>
       </c>
       <c r="L167">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="M167">
         <v>0.5556</v>
@@ -10494,19 +10497,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10520,7 +10523,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>0.36</v>
@@ -10535,7 +10538,7 @@
         <v>0.706</v>
       </c>
       <c r="L168">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="M168">
         <v>0.5556</v>
@@ -10550,19 +10553,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10576,7 +10579,7 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>0.034</v>
@@ -10591,7 +10594,7 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="L169">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M169">
         <v>0.04664</v>
@@ -10606,19 +10609,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10632,7 +10635,7 @@
         <v>53</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>0.034</v>
@@ -10647,7 +10650,7 @@
         <v>0.06859999999999999</v>
       </c>
       <c r="L170">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M170">
         <v>0.04664</v>
@@ -10662,19 +10665,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10691,7 +10694,7 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>0.012</v>
@@ -10706,7 +10709,7 @@
         <v>0.0244</v>
       </c>
       <c r="L171">
-        <v>0.012</v>
+        <v>0.0125</v>
       </c>
       <c r="M171">
         <v>0.017</v>
@@ -10721,19 +10724,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10750,7 +10753,7 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>0.012</v>
@@ -10765,7 +10768,7 @@
         <v>0.0244</v>
       </c>
       <c r="L172">
-        <v>0.012</v>
+        <v>0.0125</v>
       </c>
       <c r="M172">
         <v>0.017</v>
@@ -10780,19 +10783,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10809,16 +10812,16 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>225</v>
       </c>
       <c r="G173">
-        <v>673.67701929648</v>
+        <v>683.369983125924</v>
       </c>
       <c r="H173">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I173">
         <v>2360</v>
@@ -10830,13 +10833,13 @@
         <v>43.1034482758621</v>
       </c>
       <c r="L173">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M173">
-        <v>482.56</v>
+        <v>482.816</v>
       </c>
       <c r="N173">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O173">
         <v>1841577.109</v>
@@ -10845,19 +10848,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10874,16 +10877,16 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>225</v>
       </c>
       <c r="G174">
-        <v>673.67701929648</v>
+        <v>683.369983125924</v>
       </c>
       <c r="H174">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I174">
         <v>2360</v>
@@ -10895,13 +10898,13 @@
         <v>43.1034482758621</v>
       </c>
       <c r="L174">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M174">
-        <v>482.56</v>
+        <v>482.816</v>
       </c>
       <c r="N174">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O174">
         <v>1841577.109</v>
@@ -10910,19 +10913,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10939,16 +10942,16 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>225</v>
       </c>
       <c r="G175">
-        <v>673.67701929648</v>
+        <v>683.369983125924</v>
       </c>
       <c r="H175">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I175">
         <v>2360</v>
@@ -10960,13 +10963,13 @@
         <v>43.1034482758621</v>
       </c>
       <c r="L175">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M175">
-        <v>482.56</v>
+        <v>482.816</v>
       </c>
       <c r="N175">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O175">
         <v>1841577.109</v>
@@ -10975,19 +10978,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11004,16 +11007,16 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>225</v>
       </c>
       <c r="G176">
-        <v>673.67701929648</v>
+        <v>683.369983125924</v>
       </c>
       <c r="H176">
-        <v>14672.2671191959</v>
+        <v>15234.4590213036</v>
       </c>
       <c r="I176">
         <v>2360</v>
@@ -11025,13 +11028,13 @@
         <v>43.1034482758621</v>
       </c>
       <c r="L176">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M176">
-        <v>482.56</v>
+        <v>482.816</v>
       </c>
       <c r="N176">
-        <v>1542.14</v>
+        <v>1542.312</v>
       </c>
       <c r="O176">
         <v>1841577.109</v>
@@ -11040,19 +11043,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11069,13 +11072,13 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>0.0281</v>
       </c>
       <c r="G177">
-        <v>0.0378644780160172</v>
+        <v>0.0378635726137124</v>
       </c>
       <c r="H177">
         <v>0.242573401277614</v>
@@ -11084,7 +11087,7 @@
         <v>0.09725</v>
       </c>
       <c r="L177">
-        <v>0.02895</v>
+        <v>0.02511</v>
       </c>
       <c r="M177">
         <v>0.05691</v>
@@ -11099,19 +11102,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11128,13 +11131,13 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>0.0281</v>
       </c>
       <c r="G178">
-        <v>0.0378644780160172</v>
+        <v>0.0378635726137124</v>
       </c>
       <c r="H178">
         <v>0.242573401277614</v>
@@ -11143,7 +11146,7 @@
         <v>0.09725</v>
       </c>
       <c r="L178">
-        <v>0.02895</v>
+        <v>0.02511</v>
       </c>
       <c r="M178">
         <v>0.05691</v>
@@ -11158,19 +11161,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11187,7 +11190,7 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>0.042</v>
@@ -11202,7 +11205,7 @@
         <v>0.3736</v>
       </c>
       <c r="L179">
-        <v>0.02</v>
+        <v>0.0225</v>
       </c>
       <c r="M179">
         <v>0.24012</v>
@@ -11217,19 +11220,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11246,7 +11249,7 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>0.042</v>
@@ -11261,7 +11264,7 @@
         <v>0.3736</v>
       </c>
       <c r="L180">
-        <v>0.02</v>
+        <v>0.0225</v>
       </c>
       <c r="M180">
         <v>0.24012</v>
@@ -11276,19 +11279,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11302,7 +11305,7 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>0.08799999999999999</v>
@@ -11332,19 +11335,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11358,7 +11361,7 @@
         <v>54</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0.08799999999999999</v>
@@ -11388,19 +11391,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11414,7 +11417,7 @@
         <v>54</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F183">
         <v>0.365</v>
@@ -11429,7 +11432,7 @@
         <v>0.89</v>
       </c>
       <c r="L183">
-        <v>0.37</v>
+        <v>0.345</v>
       </c>
       <c r="M183">
         <v>0.5928</v>
@@ -11444,19 +11447,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U183" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -11470,7 +11473,7 @@
         <v>54</v>
       </c>
       <c r="E184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F184">
         <v>0.365</v>
@@ -11485,7 +11488,7 @@
         <v>0.89</v>
       </c>
       <c r="L184">
-        <v>0.37</v>
+        <v>0.345</v>
       </c>
       <c r="M184">
         <v>0.5928</v>
@@ -11500,19 +11503,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q184" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S184" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -11526,7 +11529,7 @@
         <v>54</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F185">
         <v>0.035</v>
@@ -11541,7 +11544,7 @@
         <v>0.0958</v>
       </c>
       <c r="L185">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M185">
         <v>0.0502</v>
@@ -11556,19 +11559,19 @@
         <v>5603628.214</v>
       </c>
       <c r="Q185" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T185" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -11582,7 +11585,7 @@
         <v>54</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F186">
         <v>0.035</v>
@@ -11597,7 +11600,7 @@
         <v>0.0958</v>
       </c>
       <c r="L186">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M186">
         <v>0.0502</v>
@@ -11612,19 +11615,969 @@
         <v>5603628.214</v>
       </c>
       <c r="Q186" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R186" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U186" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187">
+        <v>0.011</v>
+      </c>
+      <c r="G187">
+        <v>0.0118448275862069</v>
+      </c>
+      <c r="H187">
+        <v>0.027</v>
+      </c>
+      <c r="I187">
+        <v>0.0244</v>
+      </c>
+      <c r="L187">
+        <v>0.011</v>
+      </c>
+      <c r="M187">
+        <v>0.017</v>
+      </c>
+      <c r="N187">
+        <v>0.02072</v>
+      </c>
+      <c r="O187">
+        <v>1841577.109</v>
+      </c>
+      <c r="P187">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>57</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T187" t="s">
+        <v>60</v>
+      </c>
+      <c r="U187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <v>0.011</v>
+      </c>
+      <c r="G188">
+        <v>0.0118448275862069</v>
+      </c>
+      <c r="H188">
+        <v>0.027</v>
+      </c>
+      <c r="I188">
+        <v>0.0244</v>
+      </c>
+      <c r="L188">
+        <v>0.011</v>
+      </c>
+      <c r="M188">
+        <v>0.017</v>
+      </c>
+      <c r="N188">
+        <v>0.02072</v>
+      </c>
+      <c r="O188">
+        <v>1841577.109</v>
+      </c>
+      <c r="P188">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
+      <c r="T188" t="s">
+        <v>60</v>
+      </c>
+      <c r="U188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>233.8</v>
+      </c>
+      <c r="G189">
+        <v>385.813793103448</v>
+      </c>
+      <c r="H189">
+        <v>3465.6</v>
+      </c>
+      <c r="I189">
+        <v>1489.52</v>
+      </c>
+      <c r="J189">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K189">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L189">
+        <v>291.6</v>
+      </c>
+      <c r="M189">
+        <v>416.448</v>
+      </c>
+      <c r="N189">
+        <v>803.5359999999999</v>
+      </c>
+      <c r="O189">
+        <v>1841577.109</v>
+      </c>
+      <c r="P189">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>26</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>233.8</v>
+      </c>
+      <c r="G190">
+        <v>385.813793103448</v>
+      </c>
+      <c r="H190">
+        <v>3465.6</v>
+      </c>
+      <c r="I190">
+        <v>1489.52</v>
+      </c>
+      <c r="J190">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K190">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L190">
+        <v>291.6</v>
+      </c>
+      <c r="M190">
+        <v>416.448</v>
+      </c>
+      <c r="N190">
+        <v>803.5359999999999</v>
+      </c>
+      <c r="O190">
+        <v>1841577.109</v>
+      </c>
+      <c r="P190">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>233.8</v>
+      </c>
+      <c r="G191">
+        <v>385.813793103448</v>
+      </c>
+      <c r="H191">
+        <v>3465.6</v>
+      </c>
+      <c r="I191">
+        <v>1489.52</v>
+      </c>
+      <c r="J191">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K191">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L191">
+        <v>291.6</v>
+      </c>
+      <c r="M191">
+        <v>416.448</v>
+      </c>
+      <c r="N191">
+        <v>803.5359999999999</v>
+      </c>
+      <c r="O191">
+        <v>1841577.109</v>
+      </c>
+      <c r="P191">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" t="s">
+        <v>42</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>233.8</v>
+      </c>
+      <c r="G192">
+        <v>385.813793103448</v>
+      </c>
+      <c r="H192">
+        <v>3465.6</v>
+      </c>
+      <c r="I192">
+        <v>1489.52</v>
+      </c>
+      <c r="J192">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K192">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L192">
+        <v>291.6</v>
+      </c>
+      <c r="M192">
+        <v>416.448</v>
+      </c>
+      <c r="N192">
+        <v>803.5359999999999</v>
+      </c>
+      <c r="O192">
+        <v>1841577.109</v>
+      </c>
+      <c r="P192">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>0.02584</v>
+      </c>
+      <c r="G193">
+        <v>0.0324257774147427</v>
+      </c>
+      <c r="H193">
+        <v>0.191916005656557</v>
+      </c>
+      <c r="I193">
+        <v>0.08008999999999999</v>
+      </c>
+      <c r="L193">
+        <v>0.02421</v>
+      </c>
+      <c r="M193">
+        <v>0.05205</v>
+      </c>
+      <c r="N193">
+        <v>0.0593</v>
+      </c>
+      <c r="O193">
+        <v>1841577.109</v>
+      </c>
+      <c r="P193">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>0.02584</v>
+      </c>
+      <c r="G194">
+        <v>0.0324257774147427</v>
+      </c>
+      <c r="H194">
+        <v>0.191916005656557</v>
+      </c>
+      <c r="I194">
+        <v>0.08008999999999999</v>
+      </c>
+      <c r="L194">
+        <v>0.02421</v>
+      </c>
+      <c r="M194">
+        <v>0.05205</v>
+      </c>
+      <c r="N194">
+        <v>0.0593</v>
+      </c>
+      <c r="O194">
+        <v>1841577.109</v>
+      </c>
+      <c r="P194">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" t="s">
+        <v>43</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>0.0435</v>
+      </c>
+      <c r="G195">
+        <v>0.0961724137931034</v>
+      </c>
+      <c r="H195">
+        <v>0.443</v>
+      </c>
+      <c r="I195">
+        <v>0.3568</v>
+      </c>
+      <c r="L195">
+        <v>0.021</v>
+      </c>
+      <c r="M195">
+        <v>0.21556</v>
+      </c>
+      <c r="N195">
+        <v>0.31444</v>
+      </c>
+      <c r="O195">
+        <v>1841577.109</v>
+      </c>
+      <c r="P195">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" t="s">
+        <v>43</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>0.0435</v>
+      </c>
+      <c r="G196">
+        <v>0.0961724137931034</v>
+      </c>
+      <c r="H196">
+        <v>0.443</v>
+      </c>
+      <c r="I196">
+        <v>0.3568</v>
+      </c>
+      <c r="L196">
+        <v>0.021</v>
+      </c>
+      <c r="M196">
+        <v>0.21556</v>
+      </c>
+      <c r="N196">
+        <v>0.31444</v>
+      </c>
+      <c r="O196">
+        <v>1841577.109</v>
+      </c>
+      <c r="P196">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>0.089</v>
+      </c>
+      <c r="G197">
+        <v>0.13023275862069</v>
+      </c>
+      <c r="H197">
+        <v>0.513</v>
+      </c>
+      <c r="I197">
+        <v>0.3816</v>
+      </c>
+      <c r="L197">
+        <v>0.0525</v>
+      </c>
+      <c r="M197">
+        <v>0.2562</v>
+      </c>
+      <c r="N197">
+        <v>0.35048</v>
+      </c>
+      <c r="O197">
+        <v>1841577.109</v>
+      </c>
+      <c r="P197">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <v>0.089</v>
+      </c>
+      <c r="G198">
+        <v>0.13023275862069</v>
+      </c>
+      <c r="H198">
+        <v>0.513</v>
+      </c>
+      <c r="I198">
+        <v>0.3816</v>
+      </c>
+      <c r="L198">
+        <v>0.0525</v>
+      </c>
+      <c r="M198">
+        <v>0.2562</v>
+      </c>
+      <c r="N198">
+        <v>0.35048</v>
+      </c>
+      <c r="O198">
+        <v>1841577.109</v>
+      </c>
+      <c r="P198">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>57</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="T198" t="s">
+        <v>60</v>
+      </c>
+      <c r="U198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199">
+        <v>0.36</v>
+      </c>
+      <c r="G199">
+        <v>0.412586206896552</v>
+      </c>
+      <c r="H199">
+        <v>1.06</v>
+      </c>
+      <c r="I199">
+        <v>0.758</v>
+      </c>
+      <c r="L199">
+        <v>0.345</v>
+      </c>
+      <c r="M199">
+        <v>0.5764</v>
+      </c>
+      <c r="N199">
+        <v>0.7</v>
+      </c>
+      <c r="O199">
+        <v>1841577.109</v>
+      </c>
+      <c r="P199">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" t="s">
+        <v>58</v>
+      </c>
+      <c r="S199" t="s">
+        <v>59</v>
+      </c>
+      <c r="T199" t="s">
+        <v>60</v>
+      </c>
+      <c r="U199" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" t="s">
+        <v>36</v>
+      </c>
+      <c r="D200" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" t="s">
+        <v>56</v>
+      </c>
+      <c r="F200">
+        <v>0.36</v>
+      </c>
+      <c r="G200">
+        <v>0.412586206896552</v>
+      </c>
+      <c r="H200">
+        <v>1.06</v>
+      </c>
+      <c r="I200">
+        <v>0.758</v>
+      </c>
+      <c r="L200">
+        <v>0.345</v>
+      </c>
+      <c r="M200">
+        <v>0.5764</v>
+      </c>
+      <c r="N200">
+        <v>0.7</v>
+      </c>
+      <c r="O200">
+        <v>1841577.109</v>
+      </c>
+      <c r="P200">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>57</v>
+      </c>
+      <c r="R200" t="s">
+        <v>58</v>
+      </c>
+      <c r="S200" t="s">
+        <v>59</v>
+      </c>
+      <c r="T200" t="s">
+        <v>60</v>
+      </c>
+      <c r="U200" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
+        <v>37</v>
+      </c>
+      <c r="D201" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" t="s">
+        <v>56</v>
+      </c>
+      <c r="F201">
+        <v>0.034</v>
+      </c>
+      <c r="G201">
+        <v>0.041051724137931</v>
+      </c>
+      <c r="H201">
+        <v>0.128</v>
+      </c>
+      <c r="I201">
+        <v>0.1012</v>
+      </c>
+      <c r="L201">
+        <v>0.0335</v>
+      </c>
+      <c r="M201">
+        <v>0.05456</v>
+      </c>
+      <c r="N201">
+        <v>0.09204</v>
+      </c>
+      <c r="O201">
+        <v>1841577.109</v>
+      </c>
+      <c r="P201">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>57</v>
+      </c>
+      <c r="R201" t="s">
+        <v>58</v>
+      </c>
+      <c r="S201" t="s">
+        <v>59</v>
+      </c>
+      <c r="T201" t="s">
+        <v>60</v>
+      </c>
+      <c r="U201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>38</v>
+      </c>
+      <c r="D202" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+      <c r="F202">
+        <v>0.034</v>
+      </c>
+      <c r="G202">
+        <v>0.041051724137931</v>
+      </c>
+      <c r="H202">
+        <v>0.128</v>
+      </c>
+      <c r="I202">
+        <v>0.1012</v>
+      </c>
+      <c r="L202">
+        <v>0.0335</v>
+      </c>
+      <c r="M202">
+        <v>0.05456</v>
+      </c>
+      <c r="N202">
+        <v>0.09204</v>
+      </c>
+      <c r="O202">
+        <v>1841577.109</v>
+      </c>
+      <c r="P202">
+        <v>5603628.214</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>57</v>
+      </c>
+      <c r="R202" t="s">
+        <v>58</v>
+      </c>
+      <c r="S202" t="s">
+        <v>59</v>
+      </c>
+      <c r="T202" t="s">
+        <v>60</v>
+      </c>
+      <c r="U202" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
